--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD38A2-4EA2-4DDF-9F6D-79873B9323AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92839E5-F7DF-429F-855F-D135AE48FD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates (2)" sheetId="2" r:id="rId1"/>
     <sheet name="transformation_rates" sheetId="1" r:id="rId2"/>
+    <sheet name="initial_conditions" sheetId="3" r:id="rId3"/>
+    <sheet name="water_parameters" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -70,13 +72,259 @@
   </si>
   <si>
     <t>matriz</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Vaa</t>
+  </si>
+  <si>
+    <t>AdC</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Volumen de agua almacenado</t>
+  </si>
+  <si>
+    <t>Agua disponible para consumo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Precipitación</t>
+  </si>
+  <si>
+    <t>tprpm</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>Factor de conversión (mm a m^^3)</t>
+  </si>
+  <si>
+    <t>Fpera_min</t>
+  </si>
+  <si>
+    <t>EaOc</t>
+  </si>
+  <si>
+    <t>Entradas de otras cuencas</t>
+  </si>
+  <si>
+    <t>Factor de perdidas</t>
+  </si>
+  <si>
+    <t>tsaoc_min</t>
+  </si>
+  <si>
+    <t>tretCob1</t>
+  </si>
+  <si>
+    <t>tretCob2</t>
+  </si>
+  <si>
+    <t>tretCob3</t>
+  </si>
+  <si>
+    <t>tretCob4</t>
+  </si>
+  <si>
+    <t>tretCob5</t>
+  </si>
+  <si>
+    <t>tretCob6</t>
+  </si>
+  <si>
+    <t>tretCob7</t>
+  </si>
+  <si>
+    <t>tretCob8</t>
+  </si>
+  <si>
+    <t>tretCob9</t>
+  </si>
+  <si>
+    <t>tretCob10</t>
+  </si>
+  <si>
+    <t>tretCob11</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 1</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 2</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 3</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 4</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 5</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 6</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 7</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 8</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 9</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 10</t>
+  </si>
+  <si>
+    <t>Capacidad de retención de la cobertura 11</t>
+  </si>
+  <si>
+    <t>Tasa de salida hacia otras cuencas</t>
+  </si>
+  <si>
+    <t>pac</t>
+  </si>
+  <si>
+    <t>tpca</t>
+  </si>
+  <si>
+    <t>tasa promedio de consumo de agua</t>
+  </si>
+  <si>
+    <t>Porcentaje de agua que va hacia otras cuencas usada para consumo</t>
+  </si>
+  <si>
+    <t>Consumo 1</t>
+  </si>
+  <si>
+    <t>Consumo 2</t>
+  </si>
+  <si>
+    <t>Consumo 3</t>
+  </si>
+  <si>
+    <t>Consumo 4</t>
+  </si>
+  <si>
+    <t>Consumo 5</t>
+  </si>
+  <si>
+    <t>Consumo 6</t>
+  </si>
+  <si>
+    <t>Consumo 7</t>
+  </si>
+  <si>
+    <t>Consumo 8</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 1</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 2</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 3</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 5</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 4</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 7</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 6</t>
+  </si>
+  <si>
+    <t>Consumo de agua por actividad 8</t>
+  </si>
+  <si>
+    <t>Iact1</t>
+  </si>
+  <si>
+    <t>Iact2</t>
+  </si>
+  <si>
+    <t>Iact3</t>
+  </si>
+  <si>
+    <t>Iact4</t>
+  </si>
+  <si>
+    <t>Iact5</t>
+  </si>
+  <si>
+    <t>Iact6</t>
+  </si>
+  <si>
+    <t>Iact7</t>
+  </si>
+  <si>
+    <t>Iact8</t>
+  </si>
+  <si>
+    <t>Iact9</t>
+  </si>
+  <si>
+    <t>Iact10</t>
+  </si>
+  <si>
+    <t>Iact11</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 1</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 2</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 3</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 5</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 4</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 6</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 7</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 8</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 9</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 10</t>
+  </si>
+  <si>
+    <t>Intensidad de la afectación de la calidad de agua por la actividad 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +332,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -241,11 +517,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,6 +604,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +896,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,43 +960,43 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>7.7654604797867122E-3</v>
+        <v>5.014847877929161E-3</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="C2:L12" ca="1" si="0">0.005+RAND()*(0.01-0.005)</f>
-        <v>9.1754168889256766E-3</v>
+        <v>5.5625192943626204E-3</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4565321429019916E-3</v>
+        <v>8.1783060438075112E-3</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0322495460982265E-3</v>
+        <v>8.0090637598496852E-3</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.516127237213799E-3</v>
+        <v>9.8374834067567595E-3</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6270423763765728E-3</v>
+        <v>6.7282421000824707E-3</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8319958784825381E-3</v>
+        <v>7.9591169658645121E-3</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9362010811813138E-3</v>
+        <v>7.5262388628383487E-3</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4518150177586041E-3</v>
+        <v>5.1648163506376847E-3</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5640796939454251E-3</v>
+        <v>9.8985530355227835E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -666,46 +1005,46 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B11" ca="1" si="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>7.0394157200762732E-3</v>
+        <v>8.0500868518326493E-3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1163887497986221E-3</v>
+        <v>7.9070560562156441E-3</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9605200225593654E-3</v>
+        <v>6.919750473659554E-3</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.975884154524937E-3</v>
+        <v>7.4324297320421152E-3</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8035188669190762E-3</v>
+        <v>7.5892492931960214E-3</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8765902460152197E-3</v>
+        <v>6.5808410470306949E-3</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2222397196235154E-3</v>
+        <v>7.6503157280541686E-3</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8407325742118894E-3</v>
+        <v>6.730769942728948E-3</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.971328032851584E-3</v>
+        <v>7.3431360957414218E-3</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1275143797897436E-3</v>
+        <v>8.7328643413033032E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,46 +1053,46 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.28203860943523E-3</v>
+        <v>6.4025815796537782E-3</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6135882538632483E-3</v>
+        <v>8.384862358616612E-3</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8965862221637385E-3</v>
+        <v>8.9438843628628951E-3</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3056623159403625E-3</v>
+        <v>6.2899009932211895E-3</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5160328837094977E-3</v>
+        <v>6.9265928006180082E-3</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.785488220816204E-3</v>
+        <v>7.1845382405560272E-3</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8682713013119629E-3</v>
+        <v>5.9285368855721407E-3</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1910874565895028E-3</v>
+        <v>7.5744801875692706E-3</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4039007806078524E-3</v>
+        <v>5.5651703684874059E-3</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7540311824594675E-3</v>
+        <v>8.4117216331851888E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -762,46 +1101,46 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3051076576800076E-3</v>
+        <v>6.4321837085188826E-3</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.358031090007649E-3</v>
+        <v>9.8231281674439688E-3</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8859118854206003E-3</v>
+        <v>9.4055153523828847E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9621990654632613E-3</v>
+        <v>5.1779970163905766E-3</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2657084689410666E-3</v>
+        <v>9.4455984540651461E-3</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0607430824957372E-3</v>
+        <v>8.2070306467292437E-3</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.983776609284083E-3</v>
+        <v>7.095134912093082E-3</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.507890484283593E-3</v>
+        <v>9.8623004423339898E-3</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2847472580256393E-3</v>
+        <v>7.4843055315946729E-3</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3101148021169583E-3</v>
+        <v>9.5843870042088344E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -810,46 +1149,46 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7815769317756785E-3</v>
+        <v>6.1661757434146383E-3</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0248843910013601E-3</v>
+        <v>5.1497697446355687E-3</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6286780027535967E-3</v>
+        <v>7.3554786241019163E-3</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1475578747137282E-3</v>
+        <v>9.9387565899715941E-3</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3979536399218201E-3</v>
+        <v>6.0966370680278128E-3</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1504568913697839E-3</v>
+        <v>5.8684640347058201E-3</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.253777915178691E-3</v>
+        <v>9.6531715010734521E-3</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1264960294527019E-3</v>
+        <v>9.3399875996047592E-3</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4559965210405279E-3</v>
+        <v>6.6530524814150576E-3</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0815759448536941E-3</v>
+        <v>8.7967670461278069E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -858,46 +1197,46 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7415606998127596E-3</v>
+        <v>6.1453014991815786E-3</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5599929024249219E-3</v>
+        <v>5.5799495474154002E-3</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7263815553313192E-3</v>
+        <v>7.1035277518755723E-3</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7120199518381072E-3</v>
+        <v>9.0370417845742311E-3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.104809313739904E-3</v>
+        <v>6.2089579696535642E-3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9416860435828924E-3</v>
+        <v>6.2580976949202808E-3</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1786506965290245E-3</v>
+        <v>5.8107765345705165E-3</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8898288044930223E-3</v>
+        <v>6.1522061824158779E-3</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8288054060310572E-3</v>
+        <v>7.5634867605845722E-3</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6073546737250776E-3</v>
+        <v>9.6220923430928151E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -906,46 +1245,46 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3245974396578271E-3</v>
+        <v>6.7411932204339223E-3</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9809936786593757E-3</v>
+        <v>6.7991704412570728E-3</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9608087010895273E-3</v>
+        <v>9.0971395854604377E-3</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9444092469160869E-3</v>
+        <v>5.3245453568982401E-3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7389497773555438E-3</v>
+        <v>8.676664899235402E-3</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7694584746889963E-3</v>
+        <v>9.9500345267596029E-3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9505964526562882E-3</v>
+        <v>6.1033989856349585E-3</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0140645566389385E-3</v>
+        <v>7.8187925695468227E-3</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4370758288982379E-3</v>
+        <v>7.4974808571569851E-3</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3633877817728339E-3</v>
+        <v>9.2194180561717687E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -954,46 +1293,46 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7372822688426077E-3</v>
+        <v>7.7459612556098536E-3</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6944388260996232E-3</v>
+        <v>9.1098587503877677E-3</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.361151798406359E-3</v>
+        <v>5.1362651954452773E-3</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9434361917738285E-3</v>
+        <v>7.1940565498486101E-3</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8094742219502371E-3</v>
+        <v>9.1928844706053343E-3</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7604163282530402E-3</v>
+        <v>5.2206444453780643E-3</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5746255599053129E-3</v>
+        <v>6.4122045813693853E-3</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7954109868502231E-3</v>
+        <v>6.9716983011587821E-3</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.024101851558797E-3</v>
+        <v>5.7395776067915485E-3</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9089075468994534E-3</v>
+        <v>9.5184988016269768E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1002,46 +1341,46 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0622094881271765E-3</v>
+        <v>7.3212681264326097E-3</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7997666135701805E-3</v>
+        <v>8.7359405193153522E-3</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3210007465038485E-3</v>
+        <v>9.1955436077576919E-3</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8064708860062174E-3</v>
+        <v>9.9929422705960606E-3</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4191627778483265E-3</v>
+        <v>7.1261313469246652E-3</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8375159211425699E-3</v>
+        <v>6.8654694309746222E-3</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8650309470744426E-3</v>
+        <v>5.2656037900683534E-3</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3814027940553237E-3</v>
+        <v>8.1261033531213125E-3</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4784253262012972E-3</v>
+        <v>9.5875762213157474E-3</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1196709201278088E-3</v>
+        <v>8.4398016856910181E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1050,46 +1389,46 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1495418153846823E-3</v>
+        <v>7.1741338851236142E-3</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8383552194410868E-3</v>
+        <v>6.3532638260476084E-3</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.034800676083839E-3</v>
+        <v>9.2006656646846756E-3</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1103438872592243E-3</v>
+        <v>6.906438876394143E-3</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4243971618722727E-3</v>
+        <v>7.0775878618679275E-3</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3143962116363793E-3</v>
+        <v>9.028406347312494E-3</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0406491705637319E-3</v>
+        <v>9.4794151093843832E-3</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1023762879121339E-3</v>
+        <v>5.6546863764879675E-3</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5439425125018809E-3</v>
+        <v>6.8204682623438893E-3</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5349040800271024E-3</v>
+        <v>5.5352298069056604E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,43 +1437,43 @@
       </c>
       <c r="B12" s="3">
         <f ca="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>8.0507927183057458E-3</v>
+        <v>6.7671088813684071E-3</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.763876596906521E-3</v>
+        <v>5.6274871861313139E-3</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3155209570248099E-3</v>
+        <v>6.8464784766321023E-3</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0922042613259317E-3</v>
+        <v>9.4175028574461448E-3</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7047563337709884E-3</v>
+        <v>5.1102006179383772E-3</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5009383908133239E-3</v>
+        <v>8.7741898790453E-3</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0883206294264384E-3</v>
+        <v>7.4834966470085579E-3</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7347488959594764E-3</v>
+        <v>6.5261577365649179E-3</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.754966764074187E-3</v>
+        <v>8.509604435473897E-3</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7821698598599301E-3</v>
+        <v>8.9401932680435309E-3</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1161,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1652,4 +1991,497 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18">
+        <v>100</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>15000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>12000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>4200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>12000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>7000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92839E5-F7DF-429F-855F-D135AE48FD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E6F997-E463-4138-8F40-E9A86EF8A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates (2)" sheetId="2" r:id="rId1"/>
     <sheet name="transformation_rates" sheetId="1" r:id="rId2"/>
     <sheet name="initial_conditions" sheetId="3" r:id="rId3"/>
     <sheet name="water_parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Abiotic_Variables" sheetId="5" r:id="rId5"/>
+    <sheet name="Habitat_Availability" sheetId="6" r:id="rId6"/>
+    <sheet name="Functional_diversity" sheetId="7" r:id="rId7"/>
+    <sheet name="Diversity_of_activities" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -318,6 +323,222 @@
   </si>
   <si>
     <t>Intensidad de la afectación de la calidad de agua por la actividad 11</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DpohaEs_1max</t>
+  </si>
+  <si>
+    <t>DpohaEs_2max</t>
+  </si>
+  <si>
+    <t>DpohaEs_3max</t>
+  </si>
+  <si>
+    <t>DpohaEs_4max</t>
+  </si>
+  <si>
+    <t>DpohaEs_5max</t>
+  </si>
+  <si>
+    <t>DpohaEs_6max</t>
+  </si>
+  <si>
+    <t>DpohaEs_7max</t>
+  </si>
+  <si>
+    <t>DpohaEs_8max</t>
+  </si>
+  <si>
+    <t>DpohaEs_9max</t>
+  </si>
+  <si>
+    <t>DpohaEs_10max</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 1</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 2</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 3</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 4</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 5</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 6</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 7</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 8</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 9</t>
+  </si>
+  <si>
+    <t>Distrribución potencial de hábitat especie 10</t>
+  </si>
+  <si>
+    <t>UES1</t>
+  </si>
+  <si>
+    <t>UES2</t>
+  </si>
+  <si>
+    <t>UES3</t>
+  </si>
+  <si>
+    <t>UES4</t>
+  </si>
+  <si>
+    <t>UES5</t>
+  </si>
+  <si>
+    <t>UES6</t>
+  </si>
+  <si>
+    <t>UES7</t>
+  </si>
+  <si>
+    <t>UES8</t>
+  </si>
+  <si>
+    <t>UES9</t>
+  </si>
+  <si>
+    <t>UES10</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 1</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 2</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 3</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 4</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 5</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 6</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 7</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 8</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 9</t>
+  </si>
+  <si>
+    <t>Umbral de desaparición de la especie 10</t>
+  </si>
+  <si>
+    <t>Función 1</t>
+  </si>
+  <si>
+    <t>Función 2</t>
+  </si>
+  <si>
+    <t>Función 3</t>
+  </si>
+  <si>
+    <t>Función 4</t>
+  </si>
+  <si>
+    <t>Función 5</t>
+  </si>
+  <si>
+    <t>Función 6</t>
+  </si>
+  <si>
+    <t>Función 7</t>
+  </si>
+  <si>
+    <t>Función 8</t>
+  </si>
+  <si>
+    <t>Función 9</t>
+  </si>
+  <si>
+    <t>Función 10</t>
+  </si>
+  <si>
+    <t>Especie 1</t>
+  </si>
+  <si>
+    <t>Especie 2</t>
+  </si>
+  <si>
+    <t>Especie 3</t>
+  </si>
+  <si>
+    <t>Especie 4</t>
+  </si>
+  <si>
+    <t>Especie 5</t>
+  </si>
+  <si>
+    <t>Especie 6</t>
+  </si>
+  <si>
+    <t>Especie 7</t>
+  </si>
+  <si>
+    <t>Especie 8</t>
+  </si>
+  <si>
+    <t>Especie 9</t>
+  </si>
+  <si>
+    <t>Especie 10</t>
+  </si>
+  <si>
+    <t>Pasturas homogeneas'</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>Población en el área de estudio</t>
+  </si>
+  <si>
+    <t>tPMig</t>
+  </si>
+  <si>
+    <t>Tasa de mogración</t>
+  </si>
+  <si>
+    <t>tINPAE</t>
+  </si>
+  <si>
+    <t>Tasa de incremento neto de población</t>
+  </si>
+  <si>
+    <t>tDFPAE</t>
+  </si>
+  <si>
+    <t>Tasa de desplazamiento forzado</t>
+  </si>
+  <si>
+    <t>tEMig</t>
+  </si>
+  <si>
+    <t>Tasa de emigración</t>
   </si>
 </sst>
 </file>
@@ -575,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,6 +834,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,7 +1120,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,44 +1183,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>5.014847877929161E-3</v>
+        <f ca="1">0.01+RAND()*(0.2-0.01)</f>
+        <v>7.9173580586418574E-2</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="C2:L12" ca="1" si="0">0.005+RAND()*(0.01-0.005)</f>
-        <v>5.5625192943626204E-3</v>
+        <f t="shared" ref="D2:L11" ca="1" si="0">0.01+RAND()*(0.2-0.01)</f>
+        <v>7.8351891616017882E-2</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1783060438075112E-3</v>
+        <v>0.15963777962076331</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0090637598496852E-3</v>
+        <v>0.19323694741583838</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8374834067567595E-3</v>
+        <v>0.12725547278941518</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7282421000824707E-3</v>
+        <v>8.5246308018340905E-2</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9591169658645121E-3</v>
+        <v>0.16486278575302041</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5262388628383487E-3</v>
+        <v>0.15938641296411635</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1648163506376847E-3</v>
+        <v>0.13620435602175757</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8985530355227835E-3</v>
+        <v>0.11591198388378585</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1005,46 +1229,46 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B11" ca="1" si="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>8.0500868518326493E-3</v>
+        <v>8.0085333240221528E-3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9070560562156441E-3</v>
+        <f t="shared" ref="C3:K12" ca="1" si="2">0.005+RAND()*(0.01-0.005)</f>
+        <v>8.9448099986898268E-3</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.919750473659554E-3</v>
+        <v>0.19330204135644213</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4324297320421152E-3</v>
+        <v>0.19586128357029334</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5892492931960214E-3</v>
+        <v>9.4204537228907786E-2</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5808410470306949E-3</v>
+        <v>0.10584899537195018</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6503157280541686E-3</v>
+        <v>0.11528996300681207</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.730769942728948E-3</v>
+        <v>0.12263164107421723</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3431360957414218E-3</v>
+        <v>1.5842432428387881E-2</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7328643413033032E-3</v>
+        <v>3.830634853691002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1053,46 +1277,46 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4025815796537782E-3</v>
+        <v>9.4397348994932004E-3</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.384862358616612E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3984401653494564E-3</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9438843628628951E-3</v>
+        <v>0.17954909634175095</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2899009932211895E-3</v>
+        <v>0.1018211334632355</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9265928006180082E-3</v>
+        <v>0.13045239063412417</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1845382405560272E-3</v>
+        <v>0.17353621532690749</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9285368855721407E-3</v>
+        <v>3.6469802284661845E-2</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5744801875692706E-3</v>
+        <v>9.7300984244303376E-2</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5651703684874059E-3</v>
+        <v>7.1888006873114502E-2</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4117216331851888E-3</v>
+        <v>0.18387208403763286</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1101,46 +1325,46 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4321837085188826E-3</v>
+        <v>8.9879690467116261E-3</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8231281674439688E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1696220744962707E-3</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4055153523828847E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0936231147127014E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1779970163905766E-3</v>
+        <v>8.9935223640780451E-2</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4455984540651461E-3</v>
+        <v>5.5209304776175229E-2</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2070306467292437E-3</v>
+        <v>6.7848656276408015E-2</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.095134912093082E-3</v>
+        <v>0.15685118911229498</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8623004423339898E-3</v>
+        <v>0.18174239595554548</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4843055315946729E-3</v>
+        <v>0.14954757805207949</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5843870042088344E-3</v>
+        <v>3.5357146774095329E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1149,46 +1373,46 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1661757434146383E-3</v>
+        <v>5.6550371982495009E-3</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1497697446355687E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8770767977627242E-3</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3554786241019163E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9004737348243488E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9387565899715941E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0247261421129467E-3</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0966370680278128E-3</v>
+        <v>0.1773228386515418</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8684640347058201E-3</v>
+        <v>2.0524725240281812E-2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6531715010734521E-3</v>
+        <v>0.16710936495561432</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3399875996047592E-3</v>
+        <v>8.5531423908213347E-2</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6530524814150576E-3</v>
+        <v>0.19369679431949116</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7967670461278069E-3</v>
+        <v>5.6628360372919594E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1197,46 +1421,46 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1453014991815786E-3</v>
+        <v>7.3338915578194802E-3</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5799495474154002E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2072304586958437E-3</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1035277518755723E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.9073396291643952E-3</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.0370417845742311E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6049692061355318E-3</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2089579696535642E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.212626687681337E-3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2580976949202808E-3</v>
+        <v>3.5989861668289026E-2</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8107765345705165E-3</v>
+        <v>0.10171744388909248</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1522061824158779E-3</v>
+        <v>1.0553954845000218E-2</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5634867605845722E-3</v>
+        <v>7.1070157297466421E-2</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6220923430928151E-3</v>
+        <v>0.12442399362477746</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1245,46 +1469,46 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7411932204339223E-3</v>
+        <v>8.4265885163788204E-3</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7991704412570728E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5232532923320333E-3</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.0971395854604377E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4444894207536735E-3</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3245453568982401E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0974978160014352E-3</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.676664899235402E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8751028919247199E-3</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9500345267596029E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0627827969183717E-3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1033989856349585E-3</v>
+        <v>0.13705183580118052</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8187925695468227E-3</v>
+        <v>2.7870742204139626E-2</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4974808571569851E-3</v>
+        <v>9.0455116003040223E-2</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2194180561717687E-3</v>
+        <v>9.0835809348245269E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1293,46 +1517,46 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7459612556098536E-3</v>
+        <v>6.5068074635077407E-3</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1098587503877677E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6930963562983537E-3</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1362651954452773E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4911661413094265E-3</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1940565498486101E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2810581583166922E-3</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1928844706053343E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5850593265446966E-3</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2206444453780643E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5031808615995148E-3</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4122045813693853E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.157272111699209E-3</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9716983011587821E-3</v>
+        <v>0.16806548544333177</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7395776067915485E-3</v>
+        <v>3.2176705636919004E-2</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5184988016269768E-3</v>
+        <v>7.7123874582905386E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1341,46 +1565,46 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3212681264326097E-3</v>
+        <v>6.7696326870713888E-3</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7359405193153522E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0815321971706676E-3</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1955436077576919E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0615145353980137E-3</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9929422705960606E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1588928224346864E-3</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1261313469246652E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5689452202377297E-3</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8654694309746222E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3730341484126204E-3</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2656037900683534E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4357011398241899E-3</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1261033531213125E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3555861023807175E-3</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5875762213157474E-3</v>
+        <v>2.6044351657805158E-2</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4398016856910181E-3</v>
+        <v>0.15395771367464584</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1389,46 +1613,46 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1741338851236142E-3</v>
+        <v>8.2890420996925285E-3</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3532638260476084E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7930143792003318E-3</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2006656646846756E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1316640184822923E-3</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.906438876394143E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4462146614988987E-3</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0775878618679275E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6573543764302297E-3</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.028406347312494E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7338052534083359E-3</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4794151093843832E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1658238638394236E-3</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6546863764879675E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3520844415033175E-3</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8204682623438893E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7815067599480659E-3</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5352298069056604E-3</v>
+        <v>0.1472561303858545</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1437,43 +1661,43 @@
       </c>
       <c r="B12" s="3">
         <f ca="1">0.005+RAND()*(0.01-0.005)</f>
-        <v>6.7671088813684071E-3</v>
+        <v>7.7535628716342972E-3</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6274871861313139E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1033493709502776E-3</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8464784766321023E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.395040785202164E-3</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4175028574461448E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2129887885004247E-3</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1102006179383772E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1762853869722608E-3</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7741898790453E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7952822965719621E-3</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4834966470085579E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1449093778684462E-3</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5261577365649179E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.486607500102705E-3</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.509604435473897E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4446801188258662E-3</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9401932680435309E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4418976067120914E-3</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1498,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,8 +1763,8 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
+      <c r="G1" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -1566,34 +1790,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>8.4944290196175554E-3</v>
+        <v>0.19573281797254957</v>
       </c>
       <c r="D2" s="3">
-        <v>6.8947164960883982E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="3">
-        <v>6.3238098474513085E-3</v>
+        <v>2.154252864320012E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>5.7116669401302339E-3</v>
+        <v>0.17191792379311063</v>
       </c>
       <c r="G2" s="3">
-        <v>8.8976090065293074E-3</v>
+        <v>0.18873336486953565</v>
       </c>
       <c r="H2" s="3">
-        <v>7.6942134732131042E-3</v>
+        <v>0.1181826814912897</v>
       </c>
       <c r="I2" s="3">
-        <v>7.9641135263243922E-3</v>
+        <v>1.3117965817845988E-2</v>
       </c>
       <c r="J2" s="3">
-        <v>8.7599432229652913E-3</v>
+        <v>6.9073329665386596E-2</v>
       </c>
       <c r="K2" s="3">
-        <v>6.0180431500872029E-3</v>
+        <v>6.4260819768181557E-2</v>
       </c>
       <c r="L2" s="3">
-        <v>5.9160158367827171E-3</v>
+        <v>8.2770035633121505E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1601,37 +1825,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7.8948016019962652E-3</v>
+        <v>6.0720934624794139E-3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>5.9638187525565848E-3</v>
+        <v>8.4727711486920158E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>5.8773065224417779E-3</v>
+        <v>0.18292622763176522</v>
       </c>
       <c r="F3" s="3">
-        <v>9.6640198832164438E-3</v>
+        <v>9.3633523240937572E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>6.7830544779763852E-3</v>
+        <v>0.17739963998277414</v>
       </c>
       <c r="H3" s="3">
-        <v>9.9738305597310683E-3</v>
+        <v>6.2686886149702331E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>5.5519574382861788E-3</v>
+        <v>6.3385076099946591E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>5.4697384742804396E-3</v>
+        <v>0.19418611080215736</v>
       </c>
       <c r="K3" s="3">
-        <v>6.1004806556023364E-3</v>
+        <v>0.14670009020309244</v>
       </c>
       <c r="L3" s="3">
-        <v>6.2170925413482141E-3</v>
+        <v>0.15346990892753165</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1639,37 +1863,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>6.1436106263326115E-3</v>
+        <v>8.4173623415741312E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>8.4423648699886427E-3</v>
+        <v>8.5928233806717991E-3</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>9.9951681567270328E-3</v>
+        <v>0.19515411227672835</v>
       </c>
       <c r="F4" s="3">
-        <v>7.4269949290302669E-3</v>
+        <v>7.2327418390243689E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>7.1986044134858575E-3</v>
+        <v>6.350213726355794E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>6.6172117948311814E-3</v>
+        <v>0.16452215588825372</v>
       </c>
       <c r="I4" s="3">
-        <v>7.8073898873504254E-3</v>
+        <v>0.10503539287988439</v>
       </c>
       <c r="J4" s="3">
-        <v>6.7906344072040849E-3</v>
+        <v>0.16690253290072471</v>
       </c>
       <c r="K4" s="3">
-        <v>9.0687608255000558E-3</v>
+        <v>0.17429880406647416</v>
       </c>
       <c r="L4" s="3">
-        <v>8.7387296885653633E-3</v>
+        <v>0.11800019429273578</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1677,37 +1901,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>6.7341381873334072E-3</v>
+        <v>6.2101378711803927E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>5.9261000479068696E-3</v>
+        <v>6.6396451468447521E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>8.9770954769286624E-3</v>
+        <v>9.7591087042133255E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>8.9927800301345395E-3</v>
+        <v>6.2382289698040744E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>8.1828731471147408E-3</v>
+        <v>0.11689215492790632</v>
       </c>
       <c r="H5" s="3">
-        <v>8.6951420183647606E-3</v>
+        <v>1.7605170521890076E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>5.3824587039153163E-3</v>
+        <v>4.0263263177040272E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>7.7997465995245114E-3</v>
+        <v>7.7046825943686018E-2</v>
       </c>
       <c r="K5" s="3">
-        <v>7.8031193351873092E-3</v>
+        <v>3.0462012086750277E-2</v>
       </c>
       <c r="L5" s="3">
-        <v>7.2344151412589925E-3</v>
+        <v>0.14679107586545281</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1715,37 +1939,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0759129270696973E-3</v>
+        <v>8.6470620736513078E-3</v>
       </c>
       <c r="C6" s="3">
-        <v>7.3225873784545197E-3</v>
+        <v>8.858885249166875E-3</v>
       </c>
       <c r="D6" s="3">
-        <v>5.563424929535204E-3</v>
+        <v>9.9128329457706665E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>7.8623593128431604E-3</v>
+        <v>6.0858069181180408E-3</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>8.6904382554554745E-3</v>
+        <v>0.1628558387896295</v>
       </c>
       <c r="H6" s="3">
-        <v>9.0547575768310101E-3</v>
+        <v>0.18813026709356898</v>
       </c>
       <c r="I6" s="3">
-        <v>8.0095819842944498E-3</v>
+        <v>5.77290599336178E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>6.7247964631983216E-3</v>
+        <v>5.8233645703230037E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>7.646759349275464E-3</v>
+        <v>3.5211138903162492E-2</v>
       </c>
       <c r="L6" s="3">
-        <v>8.6412113060728383E-3</v>
+        <v>0.18089931400353956</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1753,37 +1977,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>6.7380997776516297E-3</v>
+        <v>7.9866842205983113E-3</v>
       </c>
       <c r="C7" s="3">
-        <v>5.6074884043959237E-3</v>
+        <v>8.5394149156373111E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>6.2832634400001742E-3</v>
+        <v>5.2824144291606333E-3</v>
       </c>
       <c r="E7" s="3">
-        <v>6.4373562223519502E-3</v>
+        <v>8.4866555835938148E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>9.7988856038145784E-3</v>
+        <v>7.067064588302821E-3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>8.0435216216225187E-3</v>
+        <v>1.0953275414301317E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>6.7599398061736942E-3</v>
+        <v>6.485047665891315E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>5.3084223177913489E-3</v>
+        <v>6.9817566553436627E-2</v>
       </c>
       <c r="K7" s="3">
-        <v>9.9760117173850783E-3</v>
+        <v>0.12149912674754959</v>
       </c>
       <c r="L7" s="3">
-        <v>6.5458899756984899E-3</v>
+        <v>4.2359680483304726E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1791,37 +2015,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>6.1283458200633318E-3</v>
+        <v>7.2203889979038319E-3</v>
       </c>
       <c r="C8" s="3">
-        <v>5.9044412835687855E-3</v>
+        <v>9.3022033308492839E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>5.2462419485478189E-3</v>
+        <v>8.5633543760256156E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>8.8133324104544709E-3</v>
+        <v>9.8427319279794593E-3</v>
       </c>
       <c r="F8" s="3">
-        <v>8.4725855998510138E-3</v>
+        <v>6.8067057505664585E-3</v>
       </c>
       <c r="G8" s="3">
-        <v>7.4633664857107103E-3</v>
+        <v>7.4446762347560409E-3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>8.8045561427169527E-3</v>
+        <v>0.19747042317931204</v>
       </c>
       <c r="J8" s="3">
-        <v>9.1521142141311705E-3</v>
+        <v>2.8508846937610181E-2</v>
       </c>
       <c r="K8" s="3">
-        <v>7.3327634152953397E-3</v>
+        <v>0.16539708031621361</v>
       </c>
       <c r="L8" s="3">
-        <v>5.3080698782857752E-3</v>
+        <v>7.0438125717389152E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1829,37 +2053,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>7.5541340873660134E-3</v>
+        <v>8.7633350856316343E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>9.1128248221592247E-3</v>
+        <v>8.2094536586940683E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>9.7490359159332872E-3</v>
+        <v>9.3049316724396064E-3</v>
       </c>
       <c r="E9" s="3">
-        <v>7.7632132348352742E-3</v>
+        <v>7.1088983542616493E-3</v>
       </c>
       <c r="F9" s="3">
-        <v>5.0685986752992407E-3</v>
+        <v>5.2053298500599286E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>7.7251853110738636E-3</v>
+        <v>5.362811993530581E-3</v>
       </c>
       <c r="H9" s="3">
-        <v>8.4793814918260515E-3</v>
+        <v>9.0188744345704765E-3</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>6.3757100912638252E-3</v>
+        <v>1.0244344316160234E-2</v>
       </c>
       <c r="K9" s="3">
-        <v>9.1056520572820251E-3</v>
+        <v>0.12593844864280798</v>
       </c>
       <c r="L9" s="3">
-        <v>9.8373052707795214E-3</v>
+        <v>9.9999298542642445E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1867,37 +2091,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>9.6004790599766819E-3</v>
+        <v>7.7580356027287531E-3</v>
       </c>
       <c r="C10" s="3">
-        <v>5.0527644660918357E-3</v>
+        <v>5.4411059720114096E-3</v>
       </c>
       <c r="D10" s="3">
-        <v>6.5696377274664453E-3</v>
+        <v>5.1808991408880348E-3</v>
       </c>
       <c r="E10" s="3">
-        <v>7.3227969342866805E-3</v>
+        <v>6.9238204421003006E-3</v>
       </c>
       <c r="F10" s="3">
-        <v>6.5098896206596899E-3</v>
+        <v>8.1661300676200577E-3</v>
       </c>
       <c r="G10" s="3">
-        <v>9.8847418743596791E-3</v>
+        <v>6.4046163745725025E-3</v>
       </c>
       <c r="H10" s="3">
-        <v>9.596460170814846E-3</v>
+        <v>5.6732898952311277E-3</v>
       </c>
       <c r="I10" s="3">
-        <v>9.7503336060233928E-3</v>
+        <v>8.3769094446346105E-3</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>5.4587507772416565E-3</v>
+        <v>0.18302474177095782</v>
       </c>
       <c r="L10" s="3">
-        <v>5.1891117703536452E-3</v>
+        <v>0.13426012421934161</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1905,37 +2129,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>8.1777083861465684E-3</v>
+        <v>5.8010220279186842E-3</v>
       </c>
       <c r="C11" s="3">
-        <v>5.3264195644582967E-3</v>
+        <v>7.7220530656772861E-3</v>
       </c>
       <c r="D11" s="3">
-        <v>6.777148815060802E-3</v>
+        <v>7.0407487969586366E-3</v>
       </c>
       <c r="E11" s="3">
-        <v>9.8692452301047569E-3</v>
+        <v>5.4877172551196221E-3</v>
       </c>
       <c r="F11" s="3">
-        <v>9.7961807824413667E-3</v>
+        <v>8.9898735686798591E-3</v>
       </c>
       <c r="G11" s="3">
-        <v>9.4480252251371039E-3</v>
+        <v>7.8961489287473242E-3</v>
       </c>
       <c r="H11" s="3">
-        <v>7.0550616041735511E-3</v>
+        <v>9.0968875015581298E-3</v>
       </c>
       <c r="I11" s="3">
-        <v>8.1626293088963107E-3</v>
+        <v>9.4999240301918801E-3</v>
       </c>
       <c r="J11" s="3">
-        <v>6.2156773208099456E-3</v>
+        <v>9.1386369123413747E-3</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>7.4048366632790191E-3</v>
+        <v>1.1865298297922263E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1943,41 +2167,1338 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>8.5212477620180971E-3</v>
+        <v>6.0029181952182932E-3</v>
       </c>
       <c r="C12" s="3">
-        <v>6.0047002705621126E-3</v>
+        <v>7.3174350541913135E-3</v>
       </c>
       <c r="D12" s="3">
-        <v>9.6418121796282893E-3</v>
+        <v>8.2330784633795426E-3</v>
       </c>
       <c r="E12" s="3">
-        <v>7.045794764094275E-3</v>
+        <v>9.3233722580055543E-3</v>
       </c>
       <c r="F12" s="3">
-        <v>6.9437022779515068E-3</v>
+        <v>5.703430551248034E-3</v>
       </c>
       <c r="G12" s="3">
-        <v>9.4473024331494411E-3</v>
+        <v>5.5303985261295659E-3</v>
       </c>
       <c r="H12" s="3">
-        <v>7.1893068304508031E-3</v>
+        <v>8.765545112282511E-3</v>
       </c>
       <c r="I12" s="3">
-        <v>9.9740935758266518E-3</v>
+        <v>5.1854061251645238E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>7.5053475397148899E-3</v>
+        <v>6.2824006476289943E-3</v>
       </c>
       <c r="K12" s="3">
-        <v>9.3815353430275871E-3</v>
+        <v>6.7732425913520026E-3</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18">
+        <v>100</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>15000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>12000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>4200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>12000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>7000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26D7A86-4E3D-4BFB-8963-209936CC239B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC98696-EDA2-432B-B53D-0A9731CD9D3B}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>1.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>1.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>1.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3077B532-CB5C-4299-BC01-C4CEE62D03FA}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <f ca="1">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:K2" ca="1" si="0">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:K11" ca="1" si="1">ROUND(RAND(),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:K11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1993,495 +3514,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399FE8-C706-44FC-BBC6-1A0A3571D412}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="18">
-        <v>8</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18">
-        <v>100</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>15000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>20000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>30000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>50000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24">
-        <v>12000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>4200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>12000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
-        <v>7000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD943C3-9835-4512-AD66-4C9A8B540849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685B15-777C-49EB-BE9E-5D05709F6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Habitat_Availability" sheetId="6" r:id="rId5"/>
     <sheet name="Functional_diversity" sheetId="7" r:id="rId6"/>
     <sheet name="Diversity_of_activities" sheetId="8" r:id="rId7"/>
-    <sheet name="social_fabric" sheetId="9" r:id="rId8"/>
-    <sheet name="health" sheetId="10" r:id="rId9"/>
+    <sheet name="Social_fabric" sheetId="9" r:id="rId8"/>
+    <sheet name="Health" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="296">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -923,6 +923,12 @@
   </si>
   <si>
     <t>Peso del cuidado de la fauna - Áreas degradadas</t>
+  </si>
+  <si>
+    <t>Infra_estruc</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1467,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2369,7 @@
       <c r="B27">
         <v>50000</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2383,7 +2389,7 @@
         <v>50</v>
       </c>
       <c r="B29">
-        <v>4200</v>
+        <v>25000</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -2405,7 +2411,7 @@
         <v>52</v>
       </c>
       <c r="B31">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -2416,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
@@ -2427,7 +2433,7 @@
         <v>52</v>
       </c>
       <c r="B33">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="C33" t="s">
         <v>108</v>
@@ -2449,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>23</v>
@@ -2504,7 +2510,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -2950,11 +2956,11 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
@@ -2966,15 +2972,15 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,11 +2993,11 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -2999,7 +3005,7 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
@@ -3016,31 +3022,31 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,27 +3059,27 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3082,31 +3088,31 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3119,27 +3125,27 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3148,16 +3154,16 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
@@ -3168,11 +3174,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3185,7 +3191,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
@@ -3193,19 +3199,19 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3230,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399FE8-C706-44FC-BBC6-1A0A3571D412}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,7 +3624,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E13222-C26C-4FE6-B49B-7B84C8CD6081}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,6 +4009,17 @@
         <v>276</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685B15-777C-49EB-BE9E-5D05709F6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F21C7-6723-405F-BB02-CC9798C6B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2916,7 +2916,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384CE63-9174-4422-8517-BE7A38954B2F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F21C7-6723-405F-BB02-CC9798C6B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3301E8-49BF-4EDD-B7CB-B24BA197256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="252">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -82,21 +82,9 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Vaa</t>
-  </si>
-  <si>
-    <t>AdC</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Volumen de agua almacenado</t>
-  </si>
-  <si>
-    <t>Agua disponible para consumo</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -106,192 +94,6 @@
     <t>Precipitación</t>
   </si>
   <si>
-    <t>tprpm</t>
-  </si>
-  <si>
-    <t>fac</t>
-  </si>
-  <si>
-    <t>Factor de conversión (mm a m^^3)</t>
-  </si>
-  <si>
-    <t>Fpera_min</t>
-  </si>
-  <si>
-    <t>EaOc</t>
-  </si>
-  <si>
-    <t>Entradas de otras cuencas</t>
-  </si>
-  <si>
-    <t>Factor de perdidas</t>
-  </si>
-  <si>
-    <t>tsaoc_min</t>
-  </si>
-  <si>
-    <t>tretCob1</t>
-  </si>
-  <si>
-    <t>tretCob2</t>
-  </si>
-  <si>
-    <t>tretCob3</t>
-  </si>
-  <si>
-    <t>tretCob4</t>
-  </si>
-  <si>
-    <t>tretCob5</t>
-  </si>
-  <si>
-    <t>tretCob6</t>
-  </si>
-  <si>
-    <t>tretCob7</t>
-  </si>
-  <si>
-    <t>tretCob8</t>
-  </si>
-  <si>
-    <t>tretCob9</t>
-  </si>
-  <si>
-    <t>tretCob10</t>
-  </si>
-  <si>
-    <t>tretCob11</t>
-  </si>
-  <si>
-    <t>Tasa de salida hacia otras cuencas</t>
-  </si>
-  <si>
-    <t>pac</t>
-  </si>
-  <si>
-    <t>tpca</t>
-  </si>
-  <si>
-    <t>tasa promedio de consumo de agua</t>
-  </si>
-  <si>
-    <t>Porcentaje de agua que va hacia otras cuencas usada para consumo</t>
-  </si>
-  <si>
-    <t>Consumo 1</t>
-  </si>
-  <si>
-    <t>Consumo 2</t>
-  </si>
-  <si>
-    <t>Consumo 3</t>
-  </si>
-  <si>
-    <t>Consumo 4</t>
-  </si>
-  <si>
-    <t>Consumo 5</t>
-  </si>
-  <si>
-    <t>Consumo 6</t>
-  </si>
-  <si>
-    <t>Consumo 7</t>
-  </si>
-  <si>
-    <t>Consumo 8</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 1</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 2</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 3</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 5</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 4</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 7</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 6</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 8</t>
-  </si>
-  <si>
-    <t>Iact1</t>
-  </si>
-  <si>
-    <t>Iact2</t>
-  </si>
-  <si>
-    <t>Iact3</t>
-  </si>
-  <si>
-    <t>Iact4</t>
-  </si>
-  <si>
-    <t>Iact5</t>
-  </si>
-  <si>
-    <t>Iact6</t>
-  </si>
-  <si>
-    <t>Iact7</t>
-  </si>
-  <si>
-    <t>Iact8</t>
-  </si>
-  <si>
-    <t>Iact9</t>
-  </si>
-  <si>
-    <t>Iact10</t>
-  </si>
-  <si>
-    <t>Iact11</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 1</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 2</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 3</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 5</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 4</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 6</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 7</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 8</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 9</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 10</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 11</t>
-  </si>
-  <si>
     <t>Función 1</t>
   </si>
   <si>
@@ -340,42 +142,6 @@
     <t>Pasturas homogeneas'</t>
   </si>
   <si>
-    <t>PAE</t>
-  </si>
-  <si>
-    <t>Población en el área de estudio</t>
-  </si>
-  <si>
-    <t>tINPAE</t>
-  </si>
-  <si>
-    <t>Tasa de incremento neto de población</t>
-  </si>
-  <si>
-    <t>tDFPAE</t>
-  </si>
-  <si>
-    <t>Tasa de desplazamiento forzado</t>
-  </si>
-  <si>
-    <t>tEMig</t>
-  </si>
-  <si>
-    <t>Tasa de emigración</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 9</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 10</t>
-  </si>
-  <si>
-    <t>Um_RH</t>
-  </si>
-  <si>
-    <t>Umbral de regulación hídrica</t>
-  </si>
-  <si>
     <t>Promedio decibeles en  Agropecuario heterogeneo</t>
   </si>
   <si>
@@ -451,39 +217,6 @@
     <t>Peso Calidad de aire PM10 en Vías</t>
   </si>
   <si>
-    <t>Capacidad de retención de Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Bosques</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Humedales</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Usos extractivos</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Áreas degradadas</t>
-  </si>
-  <si>
     <t>pmDcAc1</t>
   </si>
   <si>
@@ -559,12 +292,6 @@
     <t>pPm10Ac_vias</t>
   </si>
   <si>
-    <t>ConectBOactual</t>
-  </si>
-  <si>
-    <t>Indice de conectividad actual</t>
-  </si>
-  <si>
     <t>HumHa</t>
   </si>
   <si>
@@ -604,42 +331,6 @@
     <t>Tasa de ocupación por hectarea Áreas degradadas</t>
   </si>
   <si>
-    <t>Tasa de ocupacón actividad 1</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 2</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 3</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 4</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 5</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 6</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 7</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 8</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 9</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 10</t>
-  </si>
-  <si>
-    <t>Mig</t>
-  </si>
-  <si>
-    <t>Migración promedio</t>
-  </si>
-  <si>
     <t>tOAHeter</t>
   </si>
   <si>
@@ -673,156 +364,18 @@
     <t>tOADegra</t>
   </si>
   <si>
-    <t>tOAc1</t>
-  </si>
-  <si>
-    <t>tOAc2</t>
-  </si>
-  <si>
-    <t>tOAc3</t>
-  </si>
-  <si>
-    <t>tOAc4</t>
-  </si>
-  <si>
-    <t>tOAc5</t>
-  </si>
-  <si>
-    <t>tOAc6</t>
-  </si>
-  <si>
-    <t>tOAc7</t>
-  </si>
-  <si>
-    <t>tOAc8</t>
-  </si>
-  <si>
-    <t>tOAc9</t>
-  </si>
-  <si>
-    <t>tOAc10</t>
-  </si>
-  <si>
-    <t>tEmpMigra</t>
-  </si>
-  <si>
-    <t>Tasa de empleabilidad de migrantes</t>
-  </si>
-  <si>
-    <t>tEmpPLocal</t>
-  </si>
-  <si>
-    <t>Tasa de empleabilidad de población local</t>
-  </si>
-  <si>
-    <t>pMigEL</t>
-  </si>
-  <si>
-    <t>Porcentaje de migrantes en edad laboral</t>
-  </si>
-  <si>
-    <t>pPLocEL</t>
-  </si>
-  <si>
-    <t>Porcentaje de habitantes locales en edad laboral</t>
-  </si>
-  <si>
     <t>DivSisCon</t>
   </si>
   <si>
     <t>Diversidad de sistemas de conocimiento</t>
   </si>
   <si>
-    <t>facIncrCS</t>
-  </si>
-  <si>
-    <t>Factor de incremento de conflictos socioambientales</t>
-  </si>
-  <si>
-    <t>facTransConsCSA_CuAg</t>
-  </si>
-  <si>
     <t>Factor de transformación constructiva de conflictos socioambientales por cuidado del agua</t>
   </si>
   <si>
     <t>Factor de transformación constructiva de conflictos socioambientales por colaboración entre actores</t>
   </si>
   <si>
-    <t>facTransConsCSA_ColAc</t>
-  </si>
-  <si>
-    <t>PCuAg_AHeter</t>
-  </si>
-  <si>
-    <t>PCuAg_AHomo</t>
-  </si>
-  <si>
-    <t>PCuAg_PastHomo</t>
-  </si>
-  <si>
-    <t>PCuAg_Urb</t>
-  </si>
-  <si>
-    <t>PCuAg_UEx</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Agropecuario homogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Áreas degradadas</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Aheter</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_PastHomo</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_AHomo</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Urb</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Uex</t>
-  </si>
-  <si>
-    <t>PCuAg_ADegra</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Adegra</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Áreas degradadas</t>
-  </si>
-  <si>
     <t>tDeterTS</t>
   </si>
   <si>
@@ -832,9 +385,6 @@
     <t>IntCom</t>
   </si>
   <si>
-    <t>Interés comun</t>
-  </si>
-  <si>
     <t>Valor promedio de personas por programa de participación comunitaria</t>
   </si>
   <si>
@@ -889,46 +439,364 @@
     <t>pmPerProgParCom</t>
   </si>
   <si>
-    <t>PCuFau_AHeter</t>
-  </si>
-  <si>
-    <t>PCuFau_AHomo</t>
-  </si>
-  <si>
-    <t>PCuFau_PastHomo</t>
-  </si>
-  <si>
-    <t>PCuFau_Urb</t>
-  </si>
-  <si>
-    <t>PCuFau_UEx</t>
-  </si>
-  <si>
-    <t>PCuFau_ADegra</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna- Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna- Agropecuario homogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Áreas degradadas</t>
-  </si>
-  <si>
     <t>Infra_estruc</t>
   </si>
   <si>
     <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>RHs</t>
+  </si>
+  <si>
+    <t>Retención hídrica</t>
+  </si>
+  <si>
+    <t>Qm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>tConsDomes</t>
+  </si>
+  <si>
+    <t>pR</t>
+  </si>
+  <si>
+    <t>rho1</t>
+  </si>
+  <si>
+    <t>pCampCam</t>
+  </si>
+  <si>
+    <t>pPtoMz</t>
+  </si>
+  <si>
+    <t>pPHA</t>
+  </si>
+  <si>
+    <t>pPor</t>
+  </si>
+  <si>
+    <t>tPerco</t>
+  </si>
+  <si>
+    <t>ConsABO</t>
+  </si>
+  <si>
+    <t>tFS</t>
+  </si>
+  <si>
+    <t>Caudal medio a la salida de la región de estudio</t>
+  </si>
+  <si>
+    <t>Consumo industrial y energetico</t>
+  </si>
+  <si>
+    <t>Temperatura promedio multianual</t>
+  </si>
+  <si>
+    <t>Tasa de consumo pér capita</t>
+  </si>
+  <si>
+    <t>Factor adimensional de infraestructura y tecnología que indica la capacidad con la que cuenta el paisaje para obtener recurso hídrico del caudal y usarlo para riego</t>
+  </si>
+  <si>
+    <t>proporción adimencional</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de humedad que define la capacidad de campo del suelo de todos los usos (coberturas)</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de humedad por debajo del cual la vegetación de todos los usos de la región de estudio entra en estrés  hídrico</t>
+  </si>
+  <si>
+    <t>Profundidad promedio del horizonte A</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de porosidad del horizonte A</t>
+  </si>
+  <si>
+    <t>Tasa de flujo de percolación</t>
+  </si>
+  <si>
+    <t>Tasa de flujo de saturación</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Agropecuario heterogeneo</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Agrícola homogeneo</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Bosque</t>
+  </si>
+  <si>
+    <t>ConsAHerb</t>
+  </si>
+  <si>
+    <t>ConsAHeter</t>
+  </si>
+  <si>
+    <t>ConsAHomo</t>
+  </si>
+  <si>
+    <t>ConsAPastHomo</t>
+  </si>
+  <si>
+    <t>ConsADveget</t>
+  </si>
+  <si>
+    <t>ConsAVSecun</t>
+  </si>
+  <si>
+    <t>ConsADegra</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Áreas degradadas</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Pasturas homogeneas</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Suelos desprovistos de vegetación (natural)</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>ConsIndusEner</t>
+  </si>
+  <si>
+    <t>ConectBOaño1</t>
+  </si>
+  <si>
+    <t>ConectBOaño2</t>
+  </si>
+  <si>
+    <t>año 1</t>
+  </si>
+  <si>
+    <t>año 2</t>
+  </si>
+  <si>
+    <t>Indice de conectividad para el año 1</t>
+  </si>
+  <si>
+    <t>Indice de conectividad para el año 2</t>
+  </si>
+  <si>
+    <t>Año para el cual se calcula ConecBOaño1</t>
+  </si>
+  <si>
+    <t>Año para el cual se calcula ConecBOaño2</t>
+  </si>
+  <si>
+    <t>ConectBO</t>
+  </si>
+  <si>
+    <t>Conectividad del bosque</t>
+  </si>
+  <si>
+    <t>tNaciPAE</t>
+  </si>
+  <si>
+    <t>tCreciPoET</t>
+  </si>
+  <si>
+    <t>tEnvejPEA</t>
+  </si>
+  <si>
+    <t>tMortaNoNa</t>
+  </si>
+  <si>
+    <t>tMortaPoET</t>
+  </si>
+  <si>
+    <t>tMortaPoAM</t>
+  </si>
+  <si>
+    <t>InmigracionNoNa</t>
+  </si>
+  <si>
+    <t>InmigracionPoET</t>
+  </si>
+  <si>
+    <t>InmigracionPoAM</t>
+  </si>
+  <si>
+    <t>EmigracionNoNa</t>
+  </si>
+  <si>
+    <t>EmigracionPoET</t>
+  </si>
+  <si>
+    <t>EmigracionPoAM</t>
+  </si>
+  <si>
+    <t>Tasa de nacimientos</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento de la población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Tasa de envejecimiento</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de niños y niñas</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de personas en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad  de adulto mayor</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de niños y niñas</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de adulto mayor</t>
+  </si>
+  <si>
+    <t>Emigración promedio de niños y niñas</t>
+  </si>
+  <si>
+    <t>Emigración promedio de población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Emigración promedio de adulto mayor</t>
+  </si>
+  <si>
+    <t>pPoEcAc</t>
+  </si>
+  <si>
+    <t>Porcentaje de población que es economicamente activa</t>
+  </si>
+  <si>
+    <t>Vacantes  actividad 1 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 2 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 3 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 4 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 5 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 6 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 7 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 8 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 9 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 10 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>VacOAc1</t>
+  </si>
+  <si>
+    <t>VacOAc2</t>
+  </si>
+  <si>
+    <t>VacOAc3</t>
+  </si>
+  <si>
+    <t>VacOAc4</t>
+  </si>
+  <si>
+    <t>VacOAc5</t>
+  </si>
+  <si>
+    <t>VacOAc6</t>
+  </si>
+  <si>
+    <t>VacOAc7</t>
+  </si>
+  <si>
+    <t>VacOAc8</t>
+  </si>
+  <si>
+    <t>VacOAc9</t>
+  </si>
+  <si>
+    <t>VacOAc10</t>
+  </si>
+  <si>
+    <t>PoNoNa</t>
+  </si>
+  <si>
+    <t>PoET</t>
+  </si>
+  <si>
+    <t>PoAM</t>
+  </si>
+  <si>
+    <t>Población de niños y niñas</t>
+  </si>
+  <si>
+    <t>Población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Población adulto mayor</t>
+  </si>
+  <si>
+    <t>pCagua</t>
+  </si>
+  <si>
+    <t>pCfauna</t>
+  </si>
+  <si>
+    <t>pCbosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peso del cuidado del agua </t>
+  </si>
+  <si>
+    <t>Peso del cuidado de la fauna</t>
+  </si>
+  <si>
+    <t>Peso del cuidado de la bosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor de incremento de conflictos socioambientales </t>
+  </si>
+  <si>
+    <t>fTransConsConfColAct</t>
+  </si>
+  <si>
+    <t>fTransConsConfCAgua</t>
+  </si>
+  <si>
+    <t>tCrecEI</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento del enfoque integrado</t>
+  </si>
+  <si>
+    <t>fIncConfSocAm</t>
+  </si>
+  <si>
+    <t>Interés común</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1335,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -1965,16 +1833,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1983,65 +1851,87 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2052,480 +1942,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="17">
         <v>0.1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.3</v>
-      </c>
       <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="B6" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="17">
         <v>0.2</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="B8" s="17">
-        <v>0.15</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="B9" s="17">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="B10" s="17">
-        <v>0.18</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B11" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="17">
         <v>0.5</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.23</v>
-      </c>
       <c r="C12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>15000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <v>20000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>30000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27">
-        <v>50000</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>12000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>25000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>12000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31">
-        <v>10000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32">
-        <v>12000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33">
-        <v>13000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="17">
-        <v>8</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="17">
-        <v>50</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="19">
-        <v>400000000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>0.05</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2552,300 +2307,300 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2856,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC98696-EDA2-432B-B53D-0A9731CD9D3B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,39 +2625,73 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <f>initial_conditions!B3</f>
+        <v>0.95</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B3">
+        <v>0.89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
         <v>0.3</v>
       </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="15"/>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2929,30 +2718,30 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND(),0)</f>
@@ -2964,19 +2753,19 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -2985,7 +2774,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H9" ca="1" si="1">ROUND(RAND(),0)</f>
@@ -2997,11 +2786,11 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -3013,16 +2802,16 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -3030,7 +2819,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -3042,28 +2831,28 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -3071,7 +2860,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -3079,16 +2868,16 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -3096,7 +2885,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -3112,16 +2901,16 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -3133,7 +2922,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
@@ -3145,12 +2934,12 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
@@ -3158,7 +2947,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -3166,7 +2955,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
@@ -3178,16 +2967,16 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -3211,7 +3000,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3234,382 +3023,439 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399FE8-C706-44FC-BBC6-1A0A3571D412}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3">
+        <v>4.5449999999999997E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
         <v>0.04</v>
       </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
         <v>0.04</v>
       </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
         <v>2E-3</v>
       </c>
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
         <v>1E-3</v>
       </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
         <v>2E-3</v>
       </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
         <v>2E-3</v>
       </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
         <v>0.1</v>
       </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
         <v>0.2</v>
       </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11">
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
         <v>0.04</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12">
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
         <v>0.04</v>
       </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>1.6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30">
+        <v>2.4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>211</v>
       </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B35">
+        <v>0.6</v>
+      </c>
+      <c r="C35" t="s">
         <v>212</v>
       </c>
-      <c r="B15">
-        <v>1.6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16">
-        <v>0.6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18">
-        <v>2.4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24">
-        <v>0.05</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27">
-        <v>0.9</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30">
-        <v>0.9</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>229</v>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3621,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384CE63-9174-4422-8517-BE7A38954B2F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,303 +3482,149 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.17</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17">
-        <v>0.7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
         <v>251</v>
       </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19">
-        <v>0.6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21">
-        <v>0.02</v>
-      </c>
-      <c r="C21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22">
-        <v>0.02</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23">
-        <v>0.05</v>
-      </c>
-      <c r="C23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26">
-        <v>1.2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="23"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3956,68 +3648,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F21C7-6723-405F-BB02-CC9798C6B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05A39E-1B4E-49E9-9A4D-9EC043E628F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Functional_diversity" sheetId="7" r:id="rId6"/>
     <sheet name="Diversity_of_activities" sheetId="8" r:id="rId7"/>
     <sheet name="Social_fabric" sheetId="9" r:id="rId8"/>
-    <sheet name="Health" sheetId="10" r:id="rId9"/>
+    <sheet name="Common_interes" sheetId="11" r:id="rId9"/>
+    <sheet name="Health" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -82,21 +83,9 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Vaa</t>
-  </si>
-  <si>
-    <t>AdC</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Volumen de agua almacenado</t>
-  </si>
-  <si>
-    <t>Agua disponible para consumo</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -106,192 +95,6 @@
     <t>Precipitación</t>
   </si>
   <si>
-    <t>tprpm</t>
-  </si>
-  <si>
-    <t>fac</t>
-  </si>
-  <si>
-    <t>Factor de conversión (mm a m^^3)</t>
-  </si>
-  <si>
-    <t>Fpera_min</t>
-  </si>
-  <si>
-    <t>EaOc</t>
-  </si>
-  <si>
-    <t>Entradas de otras cuencas</t>
-  </si>
-  <si>
-    <t>Factor de perdidas</t>
-  </si>
-  <si>
-    <t>tsaoc_min</t>
-  </si>
-  <si>
-    <t>tretCob1</t>
-  </si>
-  <si>
-    <t>tretCob2</t>
-  </si>
-  <si>
-    <t>tretCob3</t>
-  </si>
-  <si>
-    <t>tretCob4</t>
-  </si>
-  <si>
-    <t>tretCob5</t>
-  </si>
-  <si>
-    <t>tretCob6</t>
-  </si>
-  <si>
-    <t>tretCob7</t>
-  </si>
-  <si>
-    <t>tretCob8</t>
-  </si>
-  <si>
-    <t>tretCob9</t>
-  </si>
-  <si>
-    <t>tretCob10</t>
-  </si>
-  <si>
-    <t>tretCob11</t>
-  </si>
-  <si>
-    <t>Tasa de salida hacia otras cuencas</t>
-  </si>
-  <si>
-    <t>pac</t>
-  </si>
-  <si>
-    <t>tpca</t>
-  </si>
-  <si>
-    <t>tasa promedio de consumo de agua</t>
-  </si>
-  <si>
-    <t>Porcentaje de agua que va hacia otras cuencas usada para consumo</t>
-  </si>
-  <si>
-    <t>Consumo 1</t>
-  </si>
-  <si>
-    <t>Consumo 2</t>
-  </si>
-  <si>
-    <t>Consumo 3</t>
-  </si>
-  <si>
-    <t>Consumo 4</t>
-  </si>
-  <si>
-    <t>Consumo 5</t>
-  </si>
-  <si>
-    <t>Consumo 6</t>
-  </si>
-  <si>
-    <t>Consumo 7</t>
-  </si>
-  <si>
-    <t>Consumo 8</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 1</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 2</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 3</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 5</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 4</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 7</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 6</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 8</t>
-  </si>
-  <si>
-    <t>Iact1</t>
-  </si>
-  <si>
-    <t>Iact2</t>
-  </si>
-  <si>
-    <t>Iact3</t>
-  </si>
-  <si>
-    <t>Iact4</t>
-  </si>
-  <si>
-    <t>Iact5</t>
-  </si>
-  <si>
-    <t>Iact6</t>
-  </si>
-  <si>
-    <t>Iact7</t>
-  </si>
-  <si>
-    <t>Iact8</t>
-  </si>
-  <si>
-    <t>Iact9</t>
-  </si>
-  <si>
-    <t>Iact10</t>
-  </si>
-  <si>
-    <t>Iact11</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 1</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 2</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 3</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 5</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 4</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 6</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 7</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 8</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 9</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 10</t>
-  </si>
-  <si>
-    <t>Intensidad de la afectación de la calidad de agua por la actividad 11</t>
-  </si>
-  <si>
     <t>Función 1</t>
   </si>
   <si>
@@ -340,42 +143,6 @@
     <t>Pasturas homogeneas'</t>
   </si>
   <si>
-    <t>PAE</t>
-  </si>
-  <si>
-    <t>Población en el área de estudio</t>
-  </si>
-  <si>
-    <t>tINPAE</t>
-  </si>
-  <si>
-    <t>Tasa de incremento neto de población</t>
-  </si>
-  <si>
-    <t>tDFPAE</t>
-  </si>
-  <si>
-    <t>Tasa de desplazamiento forzado</t>
-  </si>
-  <si>
-    <t>tEMig</t>
-  </si>
-  <si>
-    <t>Tasa de emigración</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 9</t>
-  </si>
-  <si>
-    <t>Consumo de agua por actividad 10</t>
-  </si>
-  <si>
-    <t>Um_RH</t>
-  </si>
-  <si>
-    <t>Umbral de regulación hídrica</t>
-  </si>
-  <si>
     <t>Promedio decibeles en  Agropecuario heterogeneo</t>
   </si>
   <si>
@@ -451,39 +218,6 @@
     <t>Peso Calidad de aire PM10 en Vías</t>
   </si>
   <si>
-    <t>Capacidad de retención de Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Bosques</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Humedales</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Usos extractivos</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>Capacidad de retención de Áreas degradadas</t>
-  </si>
-  <si>
     <t>pmDcAc1</t>
   </si>
   <si>
@@ -559,12 +293,6 @@
     <t>pPm10Ac_vias</t>
   </si>
   <si>
-    <t>ConectBOactual</t>
-  </si>
-  <si>
-    <t>Indice de conectividad actual</t>
-  </si>
-  <si>
     <t>HumHa</t>
   </si>
   <si>
@@ -604,42 +332,6 @@
     <t>Tasa de ocupación por hectarea Áreas degradadas</t>
   </si>
   <si>
-    <t>Tasa de ocupacón actividad 1</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 2</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 3</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 4</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 5</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 6</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 7</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 8</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 9</t>
-  </si>
-  <si>
-    <t>Tasa de ocupacón actividad 10</t>
-  </si>
-  <si>
-    <t>Mig</t>
-  </si>
-  <si>
-    <t>Migración promedio</t>
-  </si>
-  <si>
     <t>tOAHeter</t>
   </si>
   <si>
@@ -673,156 +365,18 @@
     <t>tOADegra</t>
   </si>
   <si>
-    <t>tOAc1</t>
-  </si>
-  <si>
-    <t>tOAc2</t>
-  </si>
-  <si>
-    <t>tOAc3</t>
-  </si>
-  <si>
-    <t>tOAc4</t>
-  </si>
-  <si>
-    <t>tOAc5</t>
-  </si>
-  <si>
-    <t>tOAc6</t>
-  </si>
-  <si>
-    <t>tOAc7</t>
-  </si>
-  <si>
-    <t>tOAc8</t>
-  </si>
-  <si>
-    <t>tOAc9</t>
-  </si>
-  <si>
-    <t>tOAc10</t>
-  </si>
-  <si>
-    <t>tEmpMigra</t>
-  </si>
-  <si>
-    <t>Tasa de empleabilidad de migrantes</t>
-  </si>
-  <si>
-    <t>tEmpPLocal</t>
-  </si>
-  <si>
-    <t>Tasa de empleabilidad de población local</t>
-  </si>
-  <si>
-    <t>pMigEL</t>
-  </si>
-  <si>
-    <t>Porcentaje de migrantes en edad laboral</t>
-  </si>
-  <si>
-    <t>pPLocEL</t>
-  </si>
-  <si>
-    <t>Porcentaje de habitantes locales en edad laboral</t>
-  </si>
-  <si>
     <t>DivSisCon</t>
   </si>
   <si>
     <t>Diversidad de sistemas de conocimiento</t>
   </si>
   <si>
-    <t>facIncrCS</t>
-  </si>
-  <si>
-    <t>Factor de incremento de conflictos socioambientales</t>
-  </si>
-  <si>
-    <t>facTransConsCSA_CuAg</t>
-  </si>
-  <si>
     <t>Factor de transformación constructiva de conflictos socioambientales por cuidado del agua</t>
   </si>
   <si>
     <t>Factor de transformación constructiva de conflictos socioambientales por colaboración entre actores</t>
   </si>
   <si>
-    <t>facTransConsCSA_ColAc</t>
-  </si>
-  <si>
-    <t>PCuAg_AHeter</t>
-  </si>
-  <si>
-    <t>PCuAg_AHomo</t>
-  </si>
-  <si>
-    <t>PCuAg_PastHomo</t>
-  </si>
-  <si>
-    <t>PCuAg_Urb</t>
-  </si>
-  <si>
-    <t>PCuAg_UEx</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Agropecuario homogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Peso del cuidado del agua - Áreas degradadas</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Aheter</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_PastHomo</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_AHomo</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Urb</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Uex</t>
-  </si>
-  <si>
-    <t>PCuAg_ADegra</t>
-  </si>
-  <si>
-    <t>tCreEnfIntegr_Adegra</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Tasa de crecimiento enfoque integrado - Áreas degradadas</t>
-  </si>
-  <si>
     <t>tDeterTS</t>
   </si>
   <si>
@@ -832,9 +386,6 @@
     <t>IntCom</t>
   </si>
   <si>
-    <t>Interés comun</t>
-  </si>
-  <si>
     <t>Valor promedio de personas por programa de participación comunitaria</t>
   </si>
   <si>
@@ -889,53 +440,590 @@
     <t>pmPerProgParCom</t>
   </si>
   <si>
-    <t>PCuFau_AHeter</t>
-  </si>
-  <si>
-    <t>PCuFau_AHomo</t>
-  </si>
-  <si>
-    <t>PCuFau_PastHomo</t>
-  </si>
-  <si>
-    <t>PCuFau_Urb</t>
-  </si>
-  <si>
-    <t>PCuFau_UEx</t>
-  </si>
-  <si>
-    <t>PCuFau_ADegra</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna- Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna- Agropecuario homogeneo</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Usos extractivos</t>
-  </si>
-  <si>
-    <t>Peso del cuidado de la fauna - Áreas degradadas</t>
-  </si>
-  <si>
     <t>Infra_estruc</t>
   </si>
   <si>
     <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>RHs</t>
+  </si>
+  <si>
+    <t>Retención hídrica</t>
+  </si>
+  <si>
+    <t>Qm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>tConsDomes</t>
+  </si>
+  <si>
+    <t>pR</t>
+  </si>
+  <si>
+    <t>rho1</t>
+  </si>
+  <si>
+    <t>pCampCam</t>
+  </si>
+  <si>
+    <t>pPtoMz</t>
+  </si>
+  <si>
+    <t>pPHA</t>
+  </si>
+  <si>
+    <t>pPor</t>
+  </si>
+  <si>
+    <t>tPerco</t>
+  </si>
+  <si>
+    <t>ConsABO</t>
+  </si>
+  <si>
+    <t>tFS</t>
+  </si>
+  <si>
+    <t>Caudal medio a la salida de la región de estudio</t>
+  </si>
+  <si>
+    <t>Consumo industrial y energetico</t>
+  </si>
+  <si>
+    <t>Temperatura promedio multianual</t>
+  </si>
+  <si>
+    <t>Tasa de consumo pér capita</t>
+  </si>
+  <si>
+    <t>Factor adimensional de infraestructura y tecnología que indica la capacidad con la que cuenta el paisaje para obtener recurso hídrico del caudal y usarlo para riego</t>
+  </si>
+  <si>
+    <t>proporción adimencional</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de humedad que define la capacidad de campo del suelo de todos los usos (coberturas)</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de humedad por debajo del cual la vegetación de todos los usos de la región de estudio entra en estrés  hídrico</t>
+  </si>
+  <si>
+    <t>Profundidad promedio del horizonte A</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio de porosidad del horizonte A</t>
+  </si>
+  <si>
+    <t>Tasa de flujo de percolación</t>
+  </si>
+  <si>
+    <t>Tasa de flujo de saturación</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Agropecuario heterogeneo</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Agrícola homogeneo</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Bosque</t>
+  </si>
+  <si>
+    <t>ConsAHerb</t>
+  </si>
+  <si>
+    <t>ConsAHeter</t>
+  </si>
+  <si>
+    <t>ConsAHomo</t>
+  </si>
+  <si>
+    <t>ConsAPastHomo</t>
+  </si>
+  <si>
+    <t>ConsADveget</t>
+  </si>
+  <si>
+    <t>ConsAVSecun</t>
+  </si>
+  <si>
+    <t>ConsADegra</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Áreas degradadas</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Pasturas homogeneas</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Suelos desprovistos de vegetación (natural)</t>
+  </si>
+  <si>
+    <t>Consumo de agua promedio anual - Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>ConsIndusEner</t>
+  </si>
+  <si>
+    <t>ConectBOaño1</t>
+  </si>
+  <si>
+    <t>ConectBOaño2</t>
+  </si>
+  <si>
+    <t>año 1</t>
+  </si>
+  <si>
+    <t>año 2</t>
+  </si>
+  <si>
+    <t>Indice de conectividad para el año 1</t>
+  </si>
+  <si>
+    <t>Indice de conectividad para el año 2</t>
+  </si>
+  <si>
+    <t>Año para el cual se calcula ConecBOaño1</t>
+  </si>
+  <si>
+    <t>Año para el cual se calcula ConecBOaño2</t>
+  </si>
+  <si>
+    <t>ConectBO</t>
+  </si>
+  <si>
+    <t>Conectividad del bosque</t>
+  </si>
+  <si>
+    <t>tNaciPAE</t>
+  </si>
+  <si>
+    <t>tCreciPoET</t>
+  </si>
+  <si>
+    <t>tEnvejPEA</t>
+  </si>
+  <si>
+    <t>tMortaNoNa</t>
+  </si>
+  <si>
+    <t>tMortaPoET</t>
+  </si>
+  <si>
+    <t>tMortaPoAM</t>
+  </si>
+  <si>
+    <t>InmigracionNoNa</t>
+  </si>
+  <si>
+    <t>InmigracionPoET</t>
+  </si>
+  <si>
+    <t>InmigracionPoAM</t>
+  </si>
+  <si>
+    <t>EmigracionNoNa</t>
+  </si>
+  <si>
+    <t>EmigracionPoET</t>
+  </si>
+  <si>
+    <t>EmigracionPoAM</t>
+  </si>
+  <si>
+    <t>Tasa de nacimientos</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento de la población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Tasa de envejecimiento</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de niños y niñas</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de personas en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad  de adulto mayor</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de niños y niñas</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Inmigración promedio de adulto mayor</t>
+  </si>
+  <si>
+    <t>Emigración promedio de niños y niñas</t>
+  </si>
+  <si>
+    <t>Emigración promedio de población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Emigración promedio de adulto mayor</t>
+  </si>
+  <si>
+    <t>pPoEcAc</t>
+  </si>
+  <si>
+    <t>Porcentaje de población que es economicamente activa</t>
+  </si>
+  <si>
+    <t>Vacantes  actividad 1 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 2 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 3 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 4 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 5 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 6 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 7 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 8 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 9 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>Vacantes actividad 10 (No depende directamente de coberturas)</t>
+  </si>
+  <si>
+    <t>VacOAc1</t>
+  </si>
+  <si>
+    <t>VacOAc2</t>
+  </si>
+  <si>
+    <t>VacOAc3</t>
+  </si>
+  <si>
+    <t>VacOAc4</t>
+  </si>
+  <si>
+    <t>VacOAc5</t>
+  </si>
+  <si>
+    <t>VacOAc6</t>
+  </si>
+  <si>
+    <t>VacOAc7</t>
+  </si>
+  <si>
+    <t>VacOAc8</t>
+  </si>
+  <si>
+    <t>VacOAc9</t>
+  </si>
+  <si>
+    <t>VacOAc10</t>
+  </si>
+  <si>
+    <t>PoNoNa</t>
+  </si>
+  <si>
+    <t>PoET</t>
+  </si>
+  <si>
+    <t>PoAM</t>
+  </si>
+  <si>
+    <t>Población de niños y niñas</t>
+  </si>
+  <si>
+    <t>Población en edad de trabajar</t>
+  </si>
+  <si>
+    <t>Población adulto mayor</t>
+  </si>
+  <si>
+    <t>pCagua</t>
+  </si>
+  <si>
+    <t>pCfauna</t>
+  </si>
+  <si>
+    <t>pCbosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peso del cuidado del agua </t>
+  </si>
+  <si>
+    <t>Peso del cuidado de la fauna</t>
+  </si>
+  <si>
+    <t>Peso del cuidado de la bosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor de incremento de conflictos socioambientales </t>
+  </si>
+  <si>
+    <t>fTransConsConfColAct</t>
+  </si>
+  <si>
+    <t>fTransConsConfCAgua</t>
+  </si>
+  <si>
+    <t>tCrecEI</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento del enfoque integrado</t>
+  </si>
+  <si>
+    <t>fIncConfSocAm</t>
+  </si>
+  <si>
+    <t>Interés común</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Procesamiento</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Capital natural</t>
+  </si>
+  <si>
+    <t>Coberturas naturales: Bosque, Herbazales, Humedales</t>
+  </si>
+  <si>
+    <t>Área del paisaje cubierta por un bosque con un umbral de cobertura de bosques, herbazales y humedales.</t>
+  </si>
+  <si>
+    <t>Módulo de coberturas</t>
+  </si>
+  <si>
+    <t>Relacionado con el módulo de coberturas.</t>
+  </si>
+  <si>
+    <t>Áreas protegidas</t>
+  </si>
+  <si>
+    <t>Dentro del área de estudio deben encontrarse: bosques, herbazales y arbustales y humedales protegidos.</t>
+  </si>
+  <si>
+    <t>Procesamiento: Mapa de coberturas cruzado con RUNAP.</t>
+  </si>
+  <si>
+    <t>Dato en Ha de coberturas que capturan CO2</t>
+  </si>
+  <si>
+    <t>Fragmentación y conectividad</t>
+  </si>
+  <si>
+    <t>Conectividad del bosque.</t>
+  </si>
+  <si>
+    <t>Módulo hábitat</t>
+  </si>
+  <si>
+    <t>Relacionado con el módulo hábitat</t>
+  </si>
+  <si>
+    <t>Captura de carbono (CO2)</t>
+  </si>
+  <si>
+    <t>Carbono en biomasa (vegetación) áreas con potencial de captura de carbono en biomasa</t>
+  </si>
+  <si>
+    <t>Precipitación y temperatura</t>
+  </si>
+  <si>
+    <t>Promedio anual de precipitación y temperatura.</t>
+  </si>
+  <si>
+    <t>Módulo de agua</t>
+  </si>
+  <si>
+    <t>Relacionado con el modelo de agua.</t>
+  </si>
+  <si>
+    <t>Calidad del agua </t>
+  </si>
+  <si>
+    <t>Parámetros que dan cuenta de la calidad del agua.</t>
+  </si>
+  <si>
+    <t>Pérdida o ganancia de hábitat para especies endémicas o en peligro de extinción</t>
+  </si>
+  <si>
+    <t>El área de cobertura forestal que se ha perdido o ha vuelto a crecer en un rango de hábitat para especies endémicas o en peligro de extinción.</t>
+  </si>
+  <si>
+    <t>Módulo de hábitat</t>
+  </si>
+  <si>
+    <t>Relacionado con el modelo de hábitat.</t>
+  </si>
+  <si>
+    <t>Producción </t>
+  </si>
+  <si>
+    <t>Cobertura agrícola homogénea</t>
+  </si>
+  <si>
+    <t>Área de cobertura seleccionada</t>
+  </si>
+  <si>
+    <t>Relacionado a módulo coberturas</t>
+  </si>
+  <si>
+    <t>Cobertura agropecuario heterogéneo</t>
+  </si>
+  <si>
+    <t>Cobertura agropecuario usos extractivos</t>
+  </si>
+  <si>
+    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura agrícola homogéneo</t>
+  </si>
+  <si>
+    <t>Características que describen las prácticas, p.ej. orgánico, ecológico, agroforestal (Osejo et al., 2021)</t>
+  </si>
+  <si>
+    <t>Censo Nacional Agropecuario 2018</t>
+  </si>
+  <si>
+    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos unas de las buenas prácticas en la cobertura agrícola homogéneo</t>
+  </si>
+  <si>
+    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura agropecuario heterogéneo</t>
+  </si>
+  <si>
+    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos unas de las buenas prácticas en la cobertura agrícola heterogéneo</t>
+  </si>
+  <si>
+    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura usos extractivos</t>
+  </si>
+  <si>
+    <t>Sellos y/o certificaciones ambientales de empresas de hidrocarburos.</t>
+  </si>
+  <si>
+    <t>Presencia o ausencia.</t>
+  </si>
+  <si>
+    <t>Bienestar humano</t>
+  </si>
+  <si>
+    <t>Población de área de estudio</t>
+  </si>
+  <si>
+    <t>Cantidad de personas en el área de estudio.</t>
+  </si>
+  <si>
+    <t>Módulo de diversidad de actividades productivas</t>
+  </si>
+  <si>
+    <t>Relacionado con el módulo de diversidad de actividades productivas.</t>
+  </si>
+  <si>
+    <t>Pobreza multidimensional</t>
+  </si>
+  <si>
+    <t>Medida de pobreza multidimensional municipal de fuente censal 2018</t>
+  </si>
+  <si>
+    <t>DANE geovisor (exportar dato por municipio)</t>
+  </si>
+  <si>
+    <t>Dato en porcentaje por municipio</t>
+  </si>
+  <si>
+    <t>Cantidad de ocupación asociada a actividades productivas</t>
+  </si>
+  <si>
+    <t>Vacantes para la ocupación en las actividades del núcleo.</t>
+  </si>
+  <si>
+    <t>Módulo diversidad de actividades productivas.</t>
+  </si>
+  <si>
+    <t>Relación con módulo de diversidad de actividades productivas</t>
+  </si>
+  <si>
+    <t>Autoconsumo</t>
+  </si>
+  <si>
+    <t>Los alimentos que se consumen en el sistema socioecológico incluyen alimentos cultivados localmente, recolectados de bosques locales o pescados en cuerpos de agua locales (Producto LVIII, 2022).</t>
+  </si>
+  <si>
+    <t>Censo Nacional Agropecuario (Se cruzan cifras de autoconsumo y destrucción)</t>
+  </si>
+  <si>
+    <t>Gobernanza</t>
+  </si>
+  <si>
+    <t>Programas y proyectos</t>
+  </si>
+  <si>
+    <t>Programas y proyectos que vinculan comunidades locales en temas de producción sostenible y bienestar humano desarrollados por Ecopetrol en torno a las áreas de estudio.</t>
+  </si>
+  <si>
+    <t>Número de beneficiarios</t>
+  </si>
+  <si>
+    <t>Beneficiarios </t>
+  </si>
+  <si>
+    <t>Prácticas de cuidado de agua </t>
+  </si>
+  <si>
+    <t>Acciones realizadas por actores humanos y no humanos que requieren la coordinación en torno a un interés común (Osejo et al., 2021)</t>
+  </si>
+  <si>
+    <t>matriz de gobernanza (# prácticas)</t>
+  </si>
+  <si>
+    <t>Número de prácticas por municipio</t>
+  </si>
+  <si>
+    <t>Prácticas de cuidado fauna</t>
+  </si>
+  <si>
+    <t>Prácticas de cuidado del bosque</t>
+  </si>
+  <si>
+    <t>Relacionar  áreas: Bosques, Herbazales y arbustales, Humedales y Vegetación secundaria o seminatural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,16 +1053,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1257,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,6 +1476,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,7 +1823,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -1963,18 +2319,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E13222-C26C-4FE6-B49B-7B84C8CD6081}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1983,65 +2424,87 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2052,480 +2515,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="17">
         <v>0.1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.3</v>
-      </c>
       <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="B6" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="17">
         <v>0.2</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="B8" s="17">
-        <v>0.15</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="B9" s="17">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="B10" s="17">
-        <v>0.18</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B11" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="17">
         <v>0.5</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.23</v>
-      </c>
       <c r="C12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>146</v>
-      </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>15000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <v>20000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>30000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27">
-        <v>50000</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>12000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>25000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>12000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31">
-        <v>10000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32">
-        <v>12000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33">
-        <v>13000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="17">
-        <v>8</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="17">
-        <v>50</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="19">
-        <v>400000000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>0.05</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2552,300 +2880,300 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2856,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC98696-EDA2-432B-B53D-0A9731CD9D3B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,39 +3198,73 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <f>initial_conditions!B3</f>
+        <v>0.95</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B3">
+        <v>0.89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
         <v>0.3</v>
       </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="15"/>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2929,30 +3291,30 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND(),0)</f>
@@ -2968,7 +3330,7 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -2976,16 +3338,16 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H9" ca="1" si="1">ROUND(RAND(),0)</f>
@@ -2993,23 +3355,23 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
@@ -3018,19 +3380,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -3051,7 +3413,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
@@ -3059,19 +3421,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -3084,7 +3446,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
@@ -3096,19 +3458,19 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
@@ -3117,15 +3479,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -3150,68 +3512,68 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="H8">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3234,382 +3596,439 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399FE8-C706-44FC-BBC6-1A0A3571D412}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3">
+        <v>4.5449999999999997E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
         <v>0.04</v>
       </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
         <v>0.04</v>
       </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
         <v>2E-3</v>
       </c>
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
         <v>1E-3</v>
       </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
         <v>2E-3</v>
       </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
         <v>2E-3</v>
       </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
         <v>0.1</v>
       </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
         <v>0.2</v>
       </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11">
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
         <v>0.04</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12">
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
         <v>0.04</v>
       </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>1.6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30">
+        <v>2.4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>211</v>
       </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B35">
+        <v>0.6</v>
+      </c>
+      <c r="C35" t="s">
         <v>212</v>
       </c>
-      <c r="B15">
-        <v>1.6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16">
-        <v>0.6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17">
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18">
-        <v>2.4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24">
-        <v>0.05</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27">
-        <v>0.9</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30">
-        <v>0.9</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>229</v>
+      <c r="C36" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3621,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384CE63-9174-4422-8517-BE7A38954B2F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,303 +4055,149 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.17</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17">
-        <v>0.7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
         <v>251</v>
       </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19">
-        <v>0.6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21">
-        <v>0.02</v>
-      </c>
-      <c r="C21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22">
-        <v>0.02</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23">
-        <v>0.05</v>
-      </c>
-      <c r="C23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26">
-        <v>1.2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="23"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,86 +4206,396 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E13222-C26C-4FE6-B49B-7B84C8CD6081}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C891A203-FC24-4F84-8E75-96FBC496434A}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B2">
-        <v>540</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B3">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E7" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B6">
-        <v>0.9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C14" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>295</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05A39E-1B4E-49E9-9A4D-9EC043E628F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A25F3C-0868-4386-A6DC-7171F6EE6108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
     <sheet name="initial_conditions" sheetId="3" r:id="rId2"/>
     <sheet name="water_parameters" sheetId="4" r:id="rId3"/>
-    <sheet name="Abiotic_Variables" sheetId="5" r:id="rId4"/>
-    <sheet name="Habitat_Availability" sheetId="6" r:id="rId5"/>
-    <sheet name="Functional_diversity" sheetId="7" r:id="rId6"/>
-    <sheet name="Diversity_of_activities" sheetId="8" r:id="rId7"/>
-    <sheet name="Social_fabric" sheetId="9" r:id="rId8"/>
-    <sheet name="Common_interes" sheetId="11" r:id="rId9"/>
-    <sheet name="Health" sheetId="10" r:id="rId10"/>
+    <sheet name="wate_quality" sheetId="12" r:id="rId4"/>
+    <sheet name="Air_quality" sheetId="5" r:id="rId5"/>
+    <sheet name="Sound_pressure" sheetId="13" r:id="rId6"/>
+    <sheet name="Habitat_Availability" sheetId="6" r:id="rId7"/>
+    <sheet name="Functional_diversity" sheetId="7" r:id="rId8"/>
+    <sheet name="Diversity_of_activities" sheetId="8" r:id="rId9"/>
+    <sheet name="Social_fabric" sheetId="9" r:id="rId10"/>
+    <sheet name="Common_interes" sheetId="11" r:id="rId11"/>
+    <sheet name="Health" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="296">
   <si>
     <t>'Agropecuario heterogeneo'</t>
   </si>
@@ -143,228 +145,6 @@
     <t>Pasturas homogeneas'</t>
   </si>
   <si>
-    <t>Promedio decibeles en  Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Bosques</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Humedales</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Usos extractivos</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Áreas degradadas</t>
-  </si>
-  <si>
-    <t>Kilometros de vías actuales</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Bosques</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Humedales</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Usos extractivos</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Áreas degradadas</t>
-  </si>
-  <si>
-    <t>Promedio decibeles en  Vías</t>
-  </si>
-  <si>
-    <t>Peso Calidad de aire PM10 en Vías</t>
-  </si>
-  <si>
-    <t>pmDcAc1</t>
-  </si>
-  <si>
-    <t>pmDcAc2</t>
-  </si>
-  <si>
-    <t>pmDcAc3</t>
-  </si>
-  <si>
-    <t>pmDcAc4</t>
-  </si>
-  <si>
-    <t>pmDcAc5</t>
-  </si>
-  <si>
-    <t>pmDcAc6</t>
-  </si>
-  <si>
-    <t>pmDcAc7</t>
-  </si>
-  <si>
-    <t>pmDcAc8</t>
-  </si>
-  <si>
-    <t>pmDcAc9</t>
-  </si>
-  <si>
-    <t>pmDcAc10</t>
-  </si>
-  <si>
-    <t>pmDcAc11</t>
-  </si>
-  <si>
-    <t>pmDcAc_vias</t>
-  </si>
-  <si>
-    <t>LongVias</t>
-  </si>
-  <si>
-    <t>pPm10Ac1</t>
-  </si>
-  <si>
-    <t>pPm10Ac2</t>
-  </si>
-  <si>
-    <t>pPm10Ac3</t>
-  </si>
-  <si>
-    <t>pPm10Ac4</t>
-  </si>
-  <si>
-    <t>pPm10Ac5</t>
-  </si>
-  <si>
-    <t>pPm10Ac6</t>
-  </si>
-  <si>
-    <t>pPm10Ac7</t>
-  </si>
-  <si>
-    <t>pPm10Ac8</t>
-  </si>
-  <si>
-    <t>pPm10Ac9</t>
-  </si>
-  <si>
-    <t>pPm10Ac10</t>
-  </si>
-  <si>
-    <t>pPm10Ac11</t>
-  </si>
-  <si>
-    <t>pPm10Ac_vias</t>
-  </si>
-  <si>
-    <t>HumHa</t>
-  </si>
-  <si>
-    <t>Humbral de hábitat</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Bosques</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Humedales</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Urbano - urbanizado</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Usos extractivos</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>Tasa de ocupación por hectarea Áreas degradadas</t>
-  </si>
-  <si>
-    <t>tOAHeter</t>
-  </si>
-  <si>
-    <t>tOAHomo</t>
-  </si>
-  <si>
-    <t>tOBO</t>
-  </si>
-  <si>
-    <t>tOHerb</t>
-  </si>
-  <si>
-    <t>tOHum</t>
-  </si>
-  <si>
-    <t>tOPastHomo</t>
-  </si>
-  <si>
-    <t>tOSDveget</t>
-  </si>
-  <si>
-    <t>tOUrb</t>
-  </si>
-  <si>
-    <t>tOUEx</t>
-  </si>
-  <si>
-    <t>tOVSecun</t>
-  </si>
-  <si>
-    <t>tOADegra</t>
-  </si>
-  <si>
     <t>DivSisCon</t>
   </si>
   <si>
@@ -383,9 +163,6 @@
     <t>Tasa de deterioro del tejido social</t>
   </si>
   <si>
-    <t>IntCom</t>
-  </si>
-  <si>
     <t>Valor promedio de personas por programa de participación comunitaria</t>
   </si>
   <si>
@@ -407,12 +184,6 @@
     <t>Vías potenciales</t>
   </si>
   <si>
-    <t>Con_fin</t>
-  </si>
-  <si>
-    <t>Condiciones financieras</t>
-  </si>
-  <si>
     <t>Num_UPA</t>
   </si>
   <si>
@@ -440,12 +211,6 @@
     <t>pmPerProgParCom</t>
   </si>
   <si>
-    <t>Infra_estruc</t>
-  </si>
-  <si>
-    <t>Infraestructura</t>
-  </si>
-  <si>
     <t>RHs</t>
   </si>
   <si>
@@ -683,66 +448,6 @@
     <t>Porcentaje de población que es economicamente activa</t>
   </si>
   <si>
-    <t>Vacantes  actividad 1 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 2 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 3 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 4 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 5 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 6 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 7 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 8 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 9 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>Vacantes actividad 10 (No depende directamente de coberturas)</t>
-  </si>
-  <si>
-    <t>VacOAc1</t>
-  </si>
-  <si>
-    <t>VacOAc2</t>
-  </si>
-  <si>
-    <t>VacOAc3</t>
-  </si>
-  <si>
-    <t>VacOAc4</t>
-  </si>
-  <si>
-    <t>VacOAc5</t>
-  </si>
-  <si>
-    <t>VacOAc6</t>
-  </si>
-  <si>
-    <t>VacOAc7</t>
-  </si>
-  <si>
-    <t>VacOAc8</t>
-  </si>
-  <si>
-    <t>VacOAc9</t>
-  </si>
-  <si>
-    <t>VacOAc10</t>
-  </si>
-  <si>
     <t>PoNoNa</t>
   </si>
   <si>
@@ -797,9 +502,6 @@
     <t>fIncConfSocAm</t>
   </si>
   <si>
-    <t>Interés común</t>
-  </si>
-  <si>
     <t>Criterio</t>
   </si>
   <si>
@@ -818,18 +520,6 @@
     <t>Capital natural</t>
   </si>
   <si>
-    <t>Coberturas naturales: Bosque, Herbazales, Humedales</t>
-  </si>
-  <si>
-    <t>Área del paisaje cubierta por un bosque con un umbral de cobertura de bosques, herbazales y humedales.</t>
-  </si>
-  <si>
-    <t>Módulo de coberturas</t>
-  </si>
-  <si>
-    <t>Relacionado con el módulo de coberturas.</t>
-  </si>
-  <si>
     <t>Áreas protegidas</t>
   </si>
   <si>
@@ -839,150 +529,30 @@
     <t>Procesamiento: Mapa de coberturas cruzado con RUNAP.</t>
   </si>
   <si>
-    <t>Dato en Ha de coberturas que capturan CO2</t>
-  </si>
-  <si>
-    <t>Fragmentación y conectividad</t>
-  </si>
-  <si>
-    <t>Conectividad del bosque.</t>
-  </si>
-  <si>
-    <t>Módulo hábitat</t>
-  </si>
-  <si>
-    <t>Relacionado con el módulo hábitat</t>
-  </si>
-  <si>
     <t>Captura de carbono (CO2)</t>
   </si>
   <si>
     <t>Carbono en biomasa (vegetación) áreas con potencial de captura de carbono en biomasa</t>
   </si>
   <si>
-    <t>Precipitación y temperatura</t>
-  </si>
-  <si>
-    <t>Promedio anual de precipitación y temperatura.</t>
-  </si>
-  <si>
-    <t>Módulo de agua</t>
-  </si>
-  <si>
-    <t>Relacionado con el modelo de agua.</t>
-  </si>
-  <si>
-    <t>Calidad del agua </t>
-  </si>
-  <si>
-    <t>Parámetros que dan cuenta de la calidad del agua.</t>
-  </si>
-  <si>
-    <t>Pérdida o ganancia de hábitat para especies endémicas o en peligro de extinción</t>
-  </si>
-  <si>
-    <t>El área de cobertura forestal que se ha perdido o ha vuelto a crecer en un rango de hábitat para especies endémicas o en peligro de extinción.</t>
-  </si>
-  <si>
-    <t>Módulo de hábitat</t>
-  </si>
-  <si>
-    <t>Relacionado con el modelo de hábitat.</t>
-  </si>
-  <si>
-    <t>Producción </t>
-  </si>
-  <si>
-    <t>Cobertura agrícola homogénea</t>
-  </si>
-  <si>
-    <t>Área de cobertura seleccionada</t>
-  </si>
-  <si>
-    <t>Relacionado a módulo coberturas</t>
-  </si>
-  <si>
-    <t>Cobertura agropecuario heterogéneo</t>
-  </si>
-  <si>
-    <t>Cobertura agropecuario usos extractivos</t>
-  </si>
-  <si>
-    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura agrícola homogéneo</t>
-  </si>
-  <si>
     <t>Características que describen las prácticas, p.ej. orgánico, ecológico, agroforestal (Osejo et al., 2021)</t>
   </si>
   <si>
-    <t>Censo Nacional Agropecuario 2018</t>
-  </si>
-  <si>
-    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos unas de las buenas prácticas en la cobertura agrícola homogéneo</t>
-  </si>
-  <si>
-    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura agropecuario heterogéneo</t>
-  </si>
-  <si>
-    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos unas de las buenas prácticas en la cobertura agrícola heterogéneo</t>
-  </si>
-  <si>
     <t>Buenas prácticas productivas relacionadas a la cobertura cobertura usos extractivos</t>
   </si>
   <si>
-    <t>Sellos y/o certificaciones ambientales de empresas de hidrocarburos.</t>
-  </si>
-  <si>
-    <t>Presencia o ausencia.</t>
-  </si>
-  <si>
-    <t>Bienestar humano</t>
-  </si>
-  <si>
-    <t>Población de área de estudio</t>
-  </si>
-  <si>
-    <t>Cantidad de personas en el área de estudio.</t>
-  </si>
-  <si>
-    <t>Módulo de diversidad de actividades productivas</t>
-  </si>
-  <si>
-    <t>Relacionado con el módulo de diversidad de actividades productivas.</t>
-  </si>
-  <si>
-    <t>Pobreza multidimensional</t>
-  </si>
-  <si>
     <t>Medida de pobreza multidimensional municipal de fuente censal 2018</t>
   </si>
   <si>
     <t>DANE geovisor (exportar dato por municipio)</t>
   </si>
   <si>
-    <t>Dato en porcentaje por municipio</t>
-  </si>
-  <si>
-    <t>Cantidad de ocupación asociada a actividades productivas</t>
-  </si>
-  <si>
-    <t>Vacantes para la ocupación en las actividades del núcleo.</t>
-  </si>
-  <si>
-    <t>Módulo diversidad de actividades productivas.</t>
-  </si>
-  <si>
-    <t>Relación con módulo de diversidad de actividades productivas</t>
-  </si>
-  <si>
     <t>Autoconsumo</t>
   </si>
   <si>
     <t>Los alimentos que se consumen en el sistema socioecológico incluyen alimentos cultivados localmente, recolectados de bosques locales o pescados en cuerpos de agua locales (Producto LVIII, 2022).</t>
   </si>
   <si>
-    <t>Censo Nacional Agropecuario (Se cruzan cifras de autoconsumo y destrucción)</t>
-  </si>
-  <si>
     <t>Gobernanza</t>
   </si>
   <si>
@@ -992,38 +562,386 @@
     <t>Programas y proyectos que vinculan comunidades locales en temas de producción sostenible y bienestar humano desarrollados por Ecopetrol en torno a las áreas de estudio.</t>
   </si>
   <si>
-    <t>Número de beneficiarios</t>
-  </si>
-  <si>
-    <t>Beneficiarios </t>
-  </si>
-  <si>
-    <t>Prácticas de cuidado de agua </t>
-  </si>
-  <si>
     <t>Acciones realizadas por actores humanos y no humanos que requieren la coordinación en torno a un interés común (Osejo et al., 2021)</t>
   </si>
   <si>
-    <t>matriz de gobernanza (# prácticas)</t>
-  </si>
-  <si>
     <t>Número de prácticas por municipio</t>
   </si>
   <si>
-    <t>Prácticas de cuidado fauna</t>
-  </si>
-  <si>
-    <t>Prácticas de cuidado del bosque</t>
-  </si>
-  <si>
     <t>Relacionar  áreas: Bosques, Herbazales y arbustales, Humedales y Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>entre 0 y 1</t>
+  </si>
+  <si>
+    <t>Héctareas de área protegida / Área total</t>
+  </si>
+  <si>
+    <t>Héctareas de área con potencial de captura de cabono/ Área total</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Buenas prácticas productivas relacionadas a la cobertura cobertura agropecuario</t>
+  </si>
+  <si>
+    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos unas de las buenas prácticas en la cobertura agrícola homógeneo y hetereogéneo</t>
+  </si>
+  <si>
+    <t>UPAS con BP(bosque, suelo, agua) / UPA Total</t>
+  </si>
+  <si>
+    <t>Sellos y/o certificaciones ambientales de empresas de hidrocarburos</t>
+  </si>
+  <si>
+    <t>Existencia - ausencia</t>
+  </si>
+  <si>
+    <t>0 o 1</t>
+  </si>
+  <si>
+    <t>Bienestas humano</t>
+  </si>
+  <si>
+    <t>Índice pobreza multidmensional</t>
+  </si>
+  <si>
+    <t>Número de unidades productivas que fueron encuestadas en el censo nacional agropecuario (CNA) del 2014 para la región de estudio que reportan al menos un autocosumo</t>
+  </si>
+  <si>
+    <t>UPAS que autoconsumen/ UPA Total</t>
+  </si>
+  <si>
+    <t>Porcenjate del indicador promedio para los municipios en la región</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas de cuidado de agua </t>
+  </si>
+  <si>
+    <t>Prácticas de cuidado de fauna</t>
+  </si>
+  <si>
+    <t>Prácticas de cuidado de bosque-ecosistema</t>
+  </si>
+  <si>
+    <t>revisar página 322 GRI</t>
+  </si>
+  <si>
+    <t>Número entero</t>
+  </si>
+  <si>
+    <t>Existencia de programas</t>
+  </si>
+  <si>
+    <t>Existencia de prácticas</t>
+  </si>
+  <si>
+    <t>tFortEmpren</t>
+  </si>
+  <si>
+    <t>PersFortDivInclu</t>
+  </si>
+  <si>
+    <t>tFortDivInclu</t>
+  </si>
+  <si>
+    <t>Tasa de fortalecimiento diversidad e inclusión</t>
+  </si>
+  <si>
+    <t>Tasa de fortalecimiento de emprendimiento</t>
+  </si>
+  <si>
+    <t>tOPHomo</t>
+  </si>
+  <si>
+    <t>tOHidrocarburos</t>
+  </si>
+  <si>
+    <t>VacPesca</t>
+  </si>
+  <si>
+    <t>VacCaza</t>
+  </si>
+  <si>
+    <t>VacSuministro</t>
+  </si>
+  <si>
+    <t>VacIndusManu</t>
+  </si>
+  <si>
+    <t>VacConstruccion</t>
+  </si>
+  <si>
+    <t>VacVehiculos</t>
+  </si>
+  <si>
+    <t>VacAlojamiento</t>
+  </si>
+  <si>
+    <t>VacTransporte</t>
+  </si>
+  <si>
+    <t>VacComunicaciones</t>
+  </si>
+  <si>
+    <t>VacAcFinancieras</t>
+  </si>
+  <si>
+    <t>VacInmoviliarias</t>
+  </si>
+  <si>
+    <t>VacCientifica</t>
+  </si>
+  <si>
+    <t>VacAdmonPublica</t>
+  </si>
+  <si>
+    <t>VacArte</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Suministro de electricidad, gas, agua y gestión de desechos</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Industrias manufactureras</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Construcción</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Comercio y reparación de vehículos</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Alojamiento y servicios de comida</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Transporte y almacenamiento</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Información y comunicaciones</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Actividades financieras y de seguros</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Actividades inmobiliarias</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Actividades profesionales, científicas,
+técnicas y de servicios administrativos</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Administración pública y defensa,
+educación y atención de la salud humana</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Actividades artísticas, entretenimiento,
+recreación y otras actividades de servicios</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Pesca</t>
+  </si>
+  <si>
+    <t>Vacantes de ocupación para Caza - Recolecta</t>
+  </si>
+  <si>
+    <t>VigenciaPersFortHabEmpren</t>
+  </si>
+  <si>
+    <t>VigenciaPersFortDivInclu</t>
+  </si>
+  <si>
+    <t>Vigencia de las personas fortalecidas en diversidad e inclusión</t>
+  </si>
+  <si>
+    <t>PersFortHabEmpren</t>
+  </si>
+  <si>
+    <t>Personas fortalecidas con habilidades de emprendimiento</t>
+  </si>
+  <si>
+    <t>Personas fortalecidas en diversidad e inclusión</t>
+  </si>
+  <si>
+    <t>tAHeter</t>
+  </si>
+  <si>
+    <t>tAHomo</t>
+  </si>
+  <si>
+    <t>Tasa de ocupación para Agropecuario heterogéneo</t>
+  </si>
+  <si>
+    <t>Tasa de ocupación para Agrícola homogéneo</t>
+  </si>
+  <si>
+    <t>Vigencia de las personas fortalecidas en habilidiades de emprendimiento</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>Tiempo inicial de simulación</t>
+  </si>
+  <si>
+    <t>Tiempo final del simulación</t>
+  </si>
+  <si>
+    <t>ConsOtros</t>
+  </si>
+  <si>
+    <t>Consumo en otras actividades</t>
+  </si>
+  <si>
+    <t>Estacion 1</t>
+  </si>
+  <si>
+    <t>Estacion 2</t>
+  </si>
+  <si>
+    <t>Estacion 3</t>
+  </si>
+  <si>
+    <t>Estacion 4</t>
+  </si>
+  <si>
+    <t>Estacion 5</t>
+  </si>
+  <si>
+    <t>Estacion 6</t>
+  </si>
+  <si>
+    <t>Estacion 7</t>
+  </si>
+  <si>
+    <t>Estacion 8</t>
+  </si>
+  <si>
+    <t>Estacion 9</t>
+  </si>
+  <si>
+    <t>Estacion 10</t>
+  </si>
+  <si>
+    <t>Estacion 11</t>
+  </si>
+  <si>
+    <t>Estacion 12</t>
+  </si>
+  <si>
+    <t>Estacion 13</t>
+  </si>
+  <si>
+    <t>ICA OD</t>
+  </si>
+  <si>
+    <t>ICA SST</t>
+  </si>
+  <si>
+    <t>ICA DQO</t>
+  </si>
+  <si>
+    <t>ICA CE</t>
+  </si>
+  <si>
+    <t>ICA pH</t>
+  </si>
+  <si>
+    <t>ICA PM10</t>
+  </si>
+  <si>
+    <t>ICA PM 2,5</t>
+  </si>
+  <si>
+    <t>ICA CO</t>
+  </si>
+  <si>
+    <t>ICA SO2</t>
+  </si>
+  <si>
+    <t>ICA NO2</t>
+  </si>
+  <si>
+    <t>ICA O3</t>
+  </si>
+  <si>
+    <t>Atenuación (db)</t>
+  </si>
+  <si>
+    <t>Urbano - urbanizado</t>
+  </si>
+  <si>
+    <t>Agrícola homogéneo / Agrícola heterogéneo</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Humedales</t>
+  </si>
+  <si>
+    <t>Usos extractivos</t>
+  </si>
+  <si>
+    <t>Pasturas homogéneas</t>
+  </si>
+  <si>
+    <t>Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>Áreas degradadas</t>
+  </si>
+  <si>
+    <t>Suelos desprovistos de vegetación (natural)</t>
+  </si>
+  <si>
+    <t>Umbral día (db)</t>
+  </si>
+  <si>
+    <t>Umbral noche (db)</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>Promedio día (db)</t>
+  </si>
+  <si>
+    <t>Promedio noche (db)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de ocupación para Pasturas homogénea </t>
+  </si>
+  <si>
+    <t>Tasa de ocupación para Explotación de hidrocarburos, Minas y Canteras</t>
+  </si>
+  <si>
+    <t>Long_vias</t>
+  </si>
+  <si>
+    <t>Longitud de vías actuales</t>
+  </si>
+  <si>
+    <t>Ind_pobreza</t>
+  </si>
+  <si>
+    <t>Indice de pobreza multidimensional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +997,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1094,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1301,13 +1255,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1325,7 +1279,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1334,52 +1288,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1420,20 +1329,83 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1471,7 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1480,66 +1451,109 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,7 +1837,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,16 +2334,449 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384CE63-9174-4422-8517-BE7A38954B2F}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>0.17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C891A203-FC24-4F84-8E75-96FBC496434A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="65">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="66">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E13222-C26C-4FE6-B49B-7B84C8CD6081}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2344,59 +2791,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2">
-        <v>540</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
+    <row r="2" spans="1:3" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="73">
+        <v>480</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>29367</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>10388</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2406,17 +2853,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317EF6B-5B69-4FC9-A4C0-27E0A6079B57}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2432,79 +2879,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>5000000</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
         <v>0.8</v>
       </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
         <v>0.7</v>
       </c>
-      <c r="C8" t="s">
-        <v>130</v>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12">
+        <v>2040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2515,16 +3006,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55838E95-87B8-4785-BD8F-7353E52C3BF4}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="146.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2541,319 +3032,275 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B2" s="17">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="B3" s="17">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="B4" s="17">
-        <v>15</v>
+        <v>2000000</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B5" s="17">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B6" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="J6" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B7" s="17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="J7" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B8" s="17">
-        <v>0.82420000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B9" s="17">
-        <v>0.13</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="J9" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17">
-        <v>0.46600000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="15"/>
+        <v>76</v>
+      </c>
       <c r="G10" s="20"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B11" s="17">
-        <v>0.68</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B12" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="17">
         <v>0.5</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
         <v>500</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="G23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2863,317 +3310,580 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26D7A86-4E3D-4BFB-8963-209936CC239B}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CBF978-4FE4-44D1-B474-FFEC8F44FAE0}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="38"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26D7A86-4E3D-4BFB-8963-209936CC239B}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="73">
+        <v>156</v>
+      </c>
+      <c r="C2" s="73">
+        <v>333</v>
+      </c>
+      <c r="D2" s="73">
+        <v>63</v>
+      </c>
+      <c r="E2" s="73">
+        <v>416</v>
+      </c>
+      <c r="F2" s="73">
+        <v>31</v>
+      </c>
+      <c r="G2" s="73">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="73">
+        <v>6</v>
+      </c>
+      <c r="C3" s="73">
+        <v>222</v>
+      </c>
+      <c r="D3" s="73">
+        <v>148</v>
+      </c>
+      <c r="E3" s="73">
+        <v>356</v>
+      </c>
+      <c r="F3" s="73">
+        <v>118</v>
+      </c>
+      <c r="G3" s="73">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="73">
+        <v>166</v>
+      </c>
+      <c r="C4" s="73">
+        <v>151</v>
+      </c>
+      <c r="D4" s="73">
+        <v>163</v>
+      </c>
+      <c r="E4" s="73">
+        <v>445</v>
+      </c>
+      <c r="F4" s="73">
+        <v>17</v>
+      </c>
+      <c r="G4" s="73">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="73">
+        <v>57</v>
+      </c>
+      <c r="C5" s="73">
+        <v>426</v>
+      </c>
+      <c r="D5" s="73">
+        <v>54</v>
+      </c>
+      <c r="E5" s="73">
+        <v>345</v>
+      </c>
+      <c r="F5" s="73">
+        <v>385</v>
+      </c>
+      <c r="G5" s="73">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="73">
+        <v>7</v>
+      </c>
+      <c r="C6" s="73">
+        <v>298</v>
+      </c>
+      <c r="D6" s="73">
+        <v>183</v>
+      </c>
+      <c r="E6" s="73">
+        <v>359</v>
+      </c>
+      <c r="F6" s="73">
+        <v>487</v>
+      </c>
+      <c r="G6" s="73">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="73">
+        <v>103</v>
+      </c>
+      <c r="C7" s="73">
+        <v>454</v>
+      </c>
+      <c r="D7" s="73">
+        <v>91</v>
+      </c>
+      <c r="E7" s="73">
+        <v>161</v>
+      </c>
+      <c r="F7" s="73">
+        <v>183</v>
+      </c>
+      <c r="G7" s="73">
         <v>15</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="73">
+        <v>24</v>
+      </c>
+      <c r="C8" s="73">
+        <v>249</v>
+      </c>
+      <c r="D8" s="73">
+        <v>113</v>
+      </c>
+      <c r="E8" s="73">
+        <v>32</v>
+      </c>
+      <c r="F8" s="73">
+        <v>364</v>
+      </c>
+      <c r="G8" s="73">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="73">
+        <v>88</v>
+      </c>
+      <c r="C9" s="73">
+        <v>19</v>
+      </c>
+      <c r="D9" s="73">
+        <v>172</v>
+      </c>
+      <c r="E9" s="73">
+        <v>251</v>
+      </c>
+      <c r="F9" s="73">
+        <v>153</v>
+      </c>
+      <c r="G9" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="73">
+        <v>30</v>
+      </c>
+      <c r="C10" s="73">
+        <v>214</v>
+      </c>
+      <c r="D10" s="73">
         <v>59</v>
       </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E10" s="73">
+        <v>53</v>
+      </c>
+      <c r="F10" s="73">
+        <v>78</v>
+      </c>
+      <c r="G10" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="73">
+        <v>176</v>
+      </c>
+      <c r="C11" s="73">
+        <v>344</v>
+      </c>
+      <c r="D11" s="73">
+        <v>32</v>
+      </c>
+      <c r="E11" s="73">
+        <v>202</v>
+      </c>
+      <c r="F11" s="73">
+        <v>492</v>
+      </c>
+      <c r="G11" s="73">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="73">
+        <v>46</v>
+      </c>
+      <c r="C12" s="73">
+        <v>132</v>
+      </c>
+      <c r="D12" s="73">
+        <v>11</v>
+      </c>
+      <c r="E12" s="73">
+        <v>147</v>
+      </c>
+      <c r="F12" s="73">
+        <v>499</v>
+      </c>
+      <c r="G12" s="73">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="73">
+        <v>120</v>
+      </c>
+      <c r="C13" s="73">
+        <v>76</v>
+      </c>
+      <c r="D13" s="73">
+        <v>45</v>
+      </c>
+      <c r="E13" s="73">
+        <v>185</v>
+      </c>
+      <c r="F13" s="73">
+        <v>221</v>
+      </c>
+      <c r="G13" s="73">
         <v>63</v>
       </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="73">
         <v>74</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C14" s="73">
+        <v>99</v>
+      </c>
+      <c r="D14" s="73">
+        <v>103</v>
+      </c>
+      <c r="E14" s="73">
+        <v>475</v>
+      </c>
+      <c r="F14" s="73">
+        <v>483</v>
+      </c>
+      <c r="G14" s="73">
         <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>380</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3182,12 +3892,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15CBD77-C7E3-44C2-9D05-BE9CE3B5091C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="73">
+        <v>55</v>
+      </c>
+      <c r="C2" s="73">
+        <v>45</v>
+      </c>
+      <c r="D2" s="73">
+        <v>5</v>
+      </c>
+      <c r="E2" s="73">
+        <v>67.948700000000002</v>
+      </c>
+      <c r="F2" s="73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="73">
+        <v>55</v>
+      </c>
+      <c r="C3" s="73">
+        <v>45</v>
+      </c>
+      <c r="D3" s="73">
+        <v>10</v>
+      </c>
+      <c r="E3" s="73">
+        <v>65.75</v>
+      </c>
+      <c r="F3" s="73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="73">
+        <v>55</v>
+      </c>
+      <c r="C4" s="73">
+        <v>45</v>
+      </c>
+      <c r="D4" s="73">
+        <v>3.6</v>
+      </c>
+      <c r="E4" s="73">
+        <v>68</v>
+      </c>
+      <c r="F4" s="73">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="73">
+        <v>55</v>
+      </c>
+      <c r="C5" s="73">
+        <v>45</v>
+      </c>
+      <c r="D5" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="73">
+        <v>68.571399999999997</v>
+      </c>
+      <c r="F5" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="73">
+        <v>55</v>
+      </c>
+      <c r="C6" s="73">
+        <v>45</v>
+      </c>
+      <c r="D6" s="73">
+        <v>4</v>
+      </c>
+      <c r="E6" s="73">
+        <v>65.236400000000003</v>
+      </c>
+      <c r="F6" s="73">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="73">
+        <v>55</v>
+      </c>
+      <c r="C7" s="73">
+        <v>45</v>
+      </c>
+      <c r="D7" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="73">
+        <v>65</v>
+      </c>
+      <c r="F7" s="73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="73">
+        <v>75</v>
+      </c>
+      <c r="C8" s="73">
+        <v>70</v>
+      </c>
+      <c r="D8" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="73">
+        <v>66</v>
+      </c>
+      <c r="F8" s="73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="73">
+        <v>75</v>
+      </c>
+      <c r="C9" s="73">
+        <v>70</v>
+      </c>
+      <c r="D9" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="73">
+        <v>63</v>
+      </c>
+      <c r="F9" s="73">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="73">
+        <v>55</v>
+      </c>
+      <c r="C10" s="73">
+        <v>45</v>
+      </c>
+      <c r="D10" s="73">
+        <v>5</v>
+      </c>
+      <c r="E10" s="73">
+        <v>62.571399999999997</v>
+      </c>
+      <c r="F10" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="73">
+        <v>55</v>
+      </c>
+      <c r="C11" s="73">
+        <v>45</v>
+      </c>
+      <c r="D11" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="73">
+        <v>65</v>
+      </c>
+      <c r="F11" s="73">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC98696-EDA2-432B-B53D-0A9731CD9D3B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,62 +4162,51 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <f>initial_conditions!B3</f>
         <v>0.95</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>0.89</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>2012</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="15"/>
+      <c r="E6" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3273,12 +4215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3077B532-CB5C-4299-BC01-C4CEE62D03FA}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +4268,7 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -3342,7 +4284,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,15 +4297,15 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -3375,7 +4317,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3392,15 +4334,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
@@ -3408,7 +4350,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,7 +4363,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -3429,11 +4371,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -3450,7 +4392,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -3458,11 +4400,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
@@ -3474,7 +4416,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3487,15 +4429,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
@@ -3503,7 +4445,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
@@ -3516,15 +4458,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -3536,11 +4478,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3561,11 +4503,11 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
@@ -3573,7 +4515,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3591,1011 +4533,464 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399FE8-C706-44FC-BBC6-1A0A3571D412}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="68"/>
+    <col min="3" max="3" width="79.7109375" style="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="68">
         <v>9.6699999999999998E-3</v>
       </c>
-      <c r="C2" t="s">
-        <v>199</v>
+      <c r="C2" s="68" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="68">
         <v>4.5449999999999997E-2</v>
       </c>
-      <c r="C3" t="s">
-        <v>200</v>
+      <c r="C3" s="68" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="68">
         <f>1/43</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="68">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="68">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="68">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="68">
+        <v>5</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="68">
+        <v>10</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="68">
+        <v>3</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="68">
+        <v>5</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="68">
+        <v>2</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="68">
+        <v>3</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="68">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="68">
+        <v>2E-3</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="68">
+        <v>1</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="68">
+        <v>1</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="68">
+        <v>10</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="68">
+        <v>20</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="68">
+        <v>10</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="68">
+        <v>2</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="68">
+        <v>6</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="68">
+        <v>20</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="68">
+        <v>3</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="68">
+        <v>5</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="68">
+        <v>3</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="68">
+        <v>3</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="68">
+        <v>1</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="68">
+        <v>2</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5">
-        <v>9.8700000000000003E-3</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6">
-        <v>8.6400000000000001E-3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14">
-        <v>0.04</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>0.04</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <v>2E-3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>1E-3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>2E-3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19">
-        <v>0.01</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20">
-        <v>2E-3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22">
-        <v>0.2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23">
-        <v>0.04</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24">
-        <v>0.04</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26">
-        <v>0.4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27">
-        <v>1.6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28">
-        <v>0.6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>216</v>
-      </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30">
-        <v>2.4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31">
-        <v>0.8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35">
-        <v>0.6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>108</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="C38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0384CE63-9174-4422-8517-BE7A38954B2F}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3">
-        <v>0.02</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4">
-        <v>0.02</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5">
-        <v>0.17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8">
-        <v>1.2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10">
-        <v>0.3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C891A203-FC24-4F84-8E75-96FBC496434A}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9D7AA-7AF7-4F7A-A49F-76B3A625ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA5215B-0045-41D4-B0FC-B408321124CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -1014,11 +1014,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,7 +1143,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,8 +1198,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1558,169 +1571,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5467,10 +5544,10 @@
       <c r="A2" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="75">
         <v>31</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5479,7 +5556,7 @@
         <v>238</v>
       </c>
       <c r="B3" s="21">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>239</v>
@@ -5490,7 +5567,7 @@
         <v>240</v>
       </c>
       <c r="B4" s="21">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>241</v>
@@ -5501,7 +5578,7 @@
         <v>242</v>
       </c>
       <c r="B5" s="21">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>243</v>
@@ -6579,7 +6656,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6587,7 +6664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6668,7 +6747,7 @@
         <v>0.63780000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>271</v>
       </c>
@@ -6687,7 +6766,7 @@
       <c r="F4" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="78">
         <v>1</v>
       </c>
     </row>
@@ -6710,8 +6789,8 @@
       <c r="F5" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="G5" s="43">
-        <v>1</v>
+      <c r="G5" s="79">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.25">
@@ -6733,7 +6812,7 @@
       <c r="F6" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="80">
         <v>1</v>
       </c>
     </row>
@@ -6756,11 +6835,11 @@
       <c r="F7" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>280</v>
       </c>
@@ -6779,8 +6858,8 @@
       <c r="F8" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="68">
-        <v>1</v>
+      <c r="G8" s="81">
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7765,7 +7844,7 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7800,7 +7879,7 @@
       <c r="A2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="72">
         <v>10</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -7834,7 +7913,7 @@
       <c r="A3" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="73">
         <v>10</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -7845,7 +7924,7 @@
       <c r="A4" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="71">
         <v>10000</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -7856,7 +7935,7 @@
       <c r="A5" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="71">
         <v>6929</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -8864,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8892,7 +8971,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="21">
-        <v>470000000</v>
+        <v>467000000</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>17</v>
@@ -9999,7 +10078,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10113,8 +10192,8 @@
       <c r="A9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="26">
-        <v>0.82420000000000004</v>
+      <c r="B9" s="72">
+        <v>0.31</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>53</v>
@@ -10125,7 +10204,7 @@
       <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="72">
         <v>0.13</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -10138,7 +10217,7 @@
       <c r="A11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="72">
         <v>0.46600000000000003</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -10151,8 +10230,8 @@
       <c r="A12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="26">
-        <v>0.68</v>
+      <c r="B12" s="72">
+        <v>0.57999999999999996</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>59</v>
@@ -10164,8 +10243,8 @@
       <c r="A13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="26">
-        <v>0.6</v>
+      <c r="B13" s="76">
+        <v>280</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>61</v>
@@ -10201,7 +10280,7 @@
       <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="73">
         <v>60.817417589999998</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -10214,7 +10293,7 @@
       <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="73">
         <v>60.817417589999998</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -10276,9 +10355,9 @@
         <v>78</v>
       </c>
       <c r="B22" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="21" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="77" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="27"/>
@@ -10288,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="21">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>81</v>
@@ -11274,7 +11353,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14511,7 +14590,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14561,7 +14640,7 @@
       <c r="E2" s="29">
         <v>63.29</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="69">
         <v>15</v>
       </c>
       <c r="G2" s="29">
@@ -14773,7 +14852,7 @@
       <c r="E12" s="29">
         <v>27.82</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>15</v>
       </c>
       <c r="G12" s="29">
@@ -14943,7 +15022,7 @@
       <c r="E20" s="29">
         <v>38.17</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="70">
         <v>15</v>
       </c>
       <c r="G20" s="29">
@@ -16138,7 +16217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16296,10 +16377,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="26">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="26">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D8" s="26">
         <v>0.01</v>
@@ -16316,7 +16397,7 @@
         <v>145</v>
       </c>
       <c r="B9" s="26">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C9" s="26">
         <v>70</v>
@@ -17429,9 +17510,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="E6" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18425,7 +18506,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18543,10 +18624,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -19644,8 +19725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19807,7 +19888,7 @@
       <c r="A14" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="76">
         <v>2.5204</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -19819,7 +19900,7 @@
       <c r="A15" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="76">
         <v>5</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -19831,7 +19912,7 @@
       <c r="A16" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="76">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -19843,8 +19924,8 @@
       <c r="A17" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="26">
-        <v>1.2438579216760904E-2</v>
+      <c r="B17" s="76">
+        <v>1.2438579220000001E-2</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>198</v>
@@ -19855,7 +19936,7 @@
       <c r="A18" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="82">
         <v>67</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -19867,7 +19948,7 @@
       <c r="A19" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="82">
         <v>41</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -19879,7 +19960,7 @@
       <c r="A20" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="82">
         <v>8</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -19891,7 +19972,7 @@
       <c r="A21" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="82">
         <v>27</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -19903,7 +19984,7 @@
       <c r="A22" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="82">
         <v>29</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -19915,7 +19996,7 @@
       <c r="A23" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="82">
         <v>87</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -19927,7 +20008,7 @@
       <c r="A24" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="82">
         <v>34</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -19939,7 +20020,7 @@
       <c r="A25" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="82">
         <v>22</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -19951,7 +20032,7 @@
       <c r="A26" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="82">
         <v>6</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -19963,7 +20044,7 @@
       <c r="A27" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="82">
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -19975,7 +20056,7 @@
       <c r="A28" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="82">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -19988,7 +20069,7 @@
       <c r="A29" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="82">
         <v>21</v>
       </c>
       <c r="C29" s="26" t="s">

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA5215B-0045-41D4-B0FC-B408321124CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35664804-EE1F-4A85-925C-EBA67787569E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="310">
   <si>
     <t>matriz</t>
   </si>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>Tasa</t>
-  </si>
-  <si>
-    <t>Qm</t>
-  </si>
-  <si>
-    <t>Caudal medio a la salida de la región de estudio</t>
   </si>
   <si>
     <t>ConsIndusEner</t>
@@ -1007,7 +1001,19 @@
     <t>Peso del cuidado del bosque</t>
   </si>
   <si>
-    <t>Factor de incremento de conflictos socioambientales - número de solicitudes, PQRs</t>
+    <t>Número de solicitudes, PQRs</t>
+  </si>
+  <si>
+    <t>OHTS</t>
+  </si>
+  <si>
+    <t>Oferta hídrica total superficial</t>
+  </si>
+  <si>
+    <t>OHTD</t>
+  </si>
+  <si>
+    <t>Oferta hídrica total disponible</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1789,15 +1795,22 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,10 +2068,10 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="26" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,21 +2109,8 @@
         <v>11</v>
       </c>
       <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -2124,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>15.10363272</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>0.36161662300000003</v>
+        <v>0</v>
       </c>
       <c r="G2" s="9">
-        <v>1.4353949999999999E-3</v>
+        <v>3.0775399999999998E-4</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
@@ -2139,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>0.97649778399999998</v>
+        <v>2.255192E-2</v>
       </c>
       <c r="K2" s="9">
-        <v>0.22348389499999999</v>
+        <v>1.6105932E-2</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2186,103 +2186,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>0.12250675599999999</v>
+        <v>5.1544822999999997E-2</v>
       </c>
       <c r="C4" s="12">
-        <v>0.165425198</v>
+        <v>6.9602793999999996E-2</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="9">
-        <v>2.8830342099999999</v>
+        <v>1.2130391250000001</v>
       </c>
       <c r="F4" s="9">
-        <v>0.20192818900000001</v>
+        <v>8.4961459000000003E-2</v>
       </c>
       <c r="G4" s="9">
-        <v>0.22504128100000001</v>
+        <v>9.4686312999999994E-2</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
       </c>
       <c r="I4" s="9">
-        <v>1.2675275999999999E-2</v>
+        <v>5.3331330000000003E-3</v>
       </c>
       <c r="J4" s="9">
-        <v>2.1399850000000002E-2</v>
+        <v>9.0040050000000007E-3</v>
       </c>
       <c r="K4" s="9">
-        <v>6.1474160000000002E-3</v>
+        <v>2.586531E-3</v>
       </c>
       <c r="L4" s="12">
-        <v>2.2411983E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+        <v>9.4298609999999995E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>0.41466324599999999</v>
+        <v>7.4738310000000002E-3</v>
       </c>
       <c r="C5" s="13">
-        <v>0.67882470900000003</v>
+        <v>1.2235039E-2</v>
       </c>
       <c r="D5" s="13">
-        <v>0.92287318699999998</v>
+        <v>1.6633734000000001E-2</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>3.9141052000000003E-2</v>
+        <v>7.0547299999999997E-4</v>
       </c>
       <c r="G5" s="9">
-        <v>1.123063924</v>
-      </c>
-      <c r="H5" s="9">
-        <v>4.3820550000000002E-3</v>
+        <v>2.0241944000000001E-2</v>
+      </c>
+      <c r="H5" s="84">
+        <v>7.8999999999999996E-5</v>
       </c>
       <c r="I5" s="9">
-        <v>6.9719847000000001E-2</v>
+        <v>1.2566210000000001E-3</v>
       </c>
       <c r="J5" s="9">
-        <v>0.29438345799999999</v>
-      </c>
-      <c r="K5" s="9">
-        <v>5.4793960000000001E-3</v>
+        <v>5.3059250000000004E-3</v>
+      </c>
+      <c r="K5" s="84">
+        <v>9.8800000000000003E-5</v>
       </c>
       <c r="L5" s="13">
-        <v>0.219559225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.957304E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>2.5525147000000002E-2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>4.3547009999999999E-3</v>
+        <v>1.90084E-4</v>
+      </c>
+      <c r="C6" s="85">
+        <v>3.2400000000000001E-5</v>
       </c>
       <c r="D6" s="9">
-        <v>8.4028898779999999</v>
+        <v>6.2575680999999994E-2</v>
       </c>
       <c r="E6" s="9">
-        <v>0.57065107599999998</v>
+        <v>4.2495950000000001E-3</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <v>7.2741480000000002E-3</v>
+      <c r="G6" s="84">
+        <v>5.4200000000000003E-5</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -2294,30 +2294,30 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>7.5304041000000002E-2</v>
+        <v>5.6078300000000003E-4</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="13">
-        <v>0.41042035300000002</v>
+        <v>6.8515449999999997E-3</v>
       </c>
       <c r="C7" s="13">
-        <v>1.612068794</v>
+        <v>6.5704184999999998E-2</v>
       </c>
       <c r="D7" s="9">
-        <v>0.25722502899999999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>7.8528770699999999</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>0.20690913799999999</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -2329,36 +2329,36 @@
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>0.81161112899999999</v>
+        <v>1.8743913000000001E-2</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" s="12">
-        <v>5.3537469999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+        <v>2.3522959999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="13">
-        <v>0.33295302100000002</v>
+        <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>2.7237237400000001</v>
+        <v>0</v>
       </c>
       <c r="D8" s="9">
-        <v>0.76523078499999997</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>2.4961753280000001</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>10.3485844</v>
+        <v>0</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -2387,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>0.37748686799999998</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>3.655071247</v>
+        <v>0</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -2414,21 +2414,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13">
-        <v>0.71703737000000001</v>
+        <v>1.1970201E-2</v>
       </c>
       <c r="C10" s="12">
-        <v>6.8920968999999999E-2</v>
+        <v>2.809059E-3</v>
       </c>
       <c r="D10" s="9">
-        <v>1.3342369140000001</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>2.7573941780000002</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -2440,48 +2440,48 @@
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>9.7267363949999996</v>
+        <v>4.992328E-2</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0.18922773200000001</v>
+        <v>1.3637175E-2</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>2.9918330869999998</v>
+        <v>4.9945574E-2</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <v>1.1734580000000001E-3</v>
+        <v>7.9209415000000005E-2</v>
       </c>
       <c r="E11" s="9">
-        <v>9.1461999999999999E-4</v>
+        <v>1.21728872</v>
       </c>
       <c r="F11" s="9">
-        <v>1.4983119999999999E-3</v>
+        <v>8.5666932000000001E-2</v>
       </c>
       <c r="G11" s="9">
-        <v>1.316025E-3</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.5161479999999999E-3</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1.5833209999999999E-3</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1.523106E-3</v>
+        <v>2.8216100000000001E-4</v>
+      </c>
+      <c r="H11" s="84">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="I11" s="84">
+        <v>8.1300000000000001E-6</v>
+      </c>
+      <c r="J11" s="84">
+        <v>3.5200000000000002E-5</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
@@ -2490,33 +2490,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>3.8731839999999997E-2</v>
+        <v>6.4658800000000002E-4</v>
       </c>
       <c r="C12" s="13">
-        <v>0.53023689100000004</v>
+        <v>2.1611226000000001E-2</v>
       </c>
       <c r="D12" s="13">
-        <v>10.824339139999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="16">
-        <v>2.1800107230000001</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>3.8595233999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>0.57041623600000002</v>
+        <v>0.12229936499999999</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="12">
-        <v>1.1140082000000001E-2</v>
+      <c r="I12" s="85">
+        <v>5.7200000000000001E-5</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -2528,16 +2528,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5516,7 +5516,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5542,134 +5542,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="75">
+        <v>235</v>
+      </c>
+      <c r="B2" s="74">
         <v>31</v>
       </c>
-      <c r="C2" s="74" t="s">
-        <v>307</v>
+      <c r="C2" s="82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="21">
         <v>0.5</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="21">
         <v>0.5</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B5" s="21">
         <v>0.25</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="36">
         <v>26</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="36">
         <v>0.3380199179847686</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="36">
         <v>0.3380199179847686</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" s="21">
         <v>0.8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="21">
         <v>0.5</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B11" s="21">
         <v>0.3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="21">
         <v>0.1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" s="21">
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6680,22 +6680,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>262</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>264</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>14</v>
@@ -6703,22 +6703,22 @@
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="D2" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>268</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>270</v>
       </c>
       <c r="G2" s="43">
         <v>0</v>
@@ -6726,22 +6726,22 @@
     </row>
     <row r="3" spans="1:7" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="E3" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>275</v>
       </c>
       <c r="G3" s="43">
         <v>0.63780000000000003</v>
@@ -6749,116 +6749,116 @@
     </row>
     <row r="4" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="D4" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="78">
+      <c r="G4" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="E5" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="F5" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="79">
-        <v>27</v>
+      <c r="G5" s="78">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="E6" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="80">
+      <c r="G6" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="80">
+      <c r="G7" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="81">
+      <c r="G8" s="80">
         <v>3</v>
       </c>
     </row>
@@ -7877,13 +7877,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="72">
         <v>10</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -7911,46 +7911,46 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" s="73">
         <v>10</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="71">
         <v>10000</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5" s="71">
         <v>6929</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="24">
         <v>0.51800000000000002</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8943,7 +8943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -9084,7 +9084,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10075,10 +10075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10107,7 +10107,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="26">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>39</v>
@@ -10119,7 +10119,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="26">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>41</v>
@@ -10131,7 +10131,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="26">
-        <v>20000000</v>
+        <v>25</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>43</v>
@@ -10143,7 +10143,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="26">
-        <v>25</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>45</v>
@@ -10155,19 +10155,20 @@
         <v>46</v>
       </c>
       <c r="B6" s="26">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>49</v>
@@ -10179,59 +10180,59 @@
       <c r="A8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="26">
-        <v>0.2</v>
+      <c r="B8" s="72">
+        <v>0.31</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="72">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="72">
-        <v>0.13</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>55</v>
       </c>
+      <c r="E10" s="17"/>
       <c r="G10" s="26"/>
-      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="72">
-        <v>0.46600000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17"/>
       <c r="G11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="72">
-        <v>0.57999999999999996</v>
+      <c r="B12" s="75">
+        <v>280</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>59</v>
@@ -10240,17 +10241,16 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="76">
-        <v>280</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="21">
+        <v>75</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -10268,13 +10268,14 @@
       <c r="A15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="21">
-        <v>75</v>
+      <c r="B15" s="73">
+        <v>60.817417589999998</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="27"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -10289,100 +10290,108 @@
       <c r="G16" s="27"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="73">
-        <v>60.817417589999998</v>
+      <c r="B17" s="21">
+        <v>80</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="27"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="21">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="21">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="21">
-        <v>40</v>
-      </c>
-      <c r="C21" s="21" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="C22" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="21">
-        <v>600</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="26">
+        <v>200000000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="26">
+        <v>105000000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11350,7 +11359,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11377,19 +11385,19 @@
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -11414,7 +11422,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="21">
         <v>0.5</v>
@@ -11434,7 +11442,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="21">
         <v>0.5</v>
@@ -11454,7 +11462,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="21">
         <v>0.3</v>
@@ -11474,7 +11482,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="21">
         <v>0.4</v>
@@ -11494,7 +11502,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="21">
         <v>0.6</v>
@@ -11514,7 +11522,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="21">
         <v>0.7</v>
@@ -11534,7 +11542,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="21">
         <v>0.8</v>
@@ -11554,7 +11562,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="21">
         <v>0.6</v>
@@ -11574,7 +11582,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="21">
         <v>0.7</v>
@@ -11594,7 +11602,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="21">
         <v>0.8</v>
@@ -14590,7 +14598,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B10" sqref="B10:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14606,27 +14614,27 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="29">
         <v>35.799999999999997</v>
@@ -14649,7 +14657,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="29">
         <v>34.46</v>
@@ -14670,7 +14678,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="29">
         <v>36.4</v>
@@ -14681,7 +14689,7 @@
       <c r="D4" s="29">
         <v>6.3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="83">
         <v>616.51</v>
       </c>
       <c r="F4" s="27"/>
@@ -14691,7 +14699,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="29">
         <v>34.79</v>
@@ -14712,7 +14720,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="29">
         <v>36.03</v>
@@ -14733,7 +14741,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="29">
         <v>37.950000000000003</v>
@@ -14754,7 +14762,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="29">
         <v>35.39</v>
@@ -14775,7 +14783,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="29">
         <v>34.82</v>
@@ -14796,7 +14804,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="29">
         <v>122.28</v>
@@ -14817,7 +14825,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="29">
         <v>129.30000000000001</v>
@@ -14838,7 +14846,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="29">
         <v>116.63</v>
@@ -14861,7 +14869,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="29">
         <v>132.80000000000001</v>
@@ -14882,7 +14890,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="29">
         <v>112.6</v>
@@ -14903,7 +14911,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="29">
         <v>163.72</v>
@@ -14924,7 +14932,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="29">
         <v>126.21</v>
@@ -14945,7 +14953,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="29">
         <v>70.430000000000007</v>
@@ -14966,7 +14974,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="29">
         <v>33.61</v>
@@ -14987,7 +14995,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="29">
         <v>33.1</v>
@@ -15008,7 +15016,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="29">
         <v>35.78</v>
@@ -15031,7 +15039,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="29">
         <v>35.46</v>
@@ -15052,7 +15060,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="29">
         <v>33.26</v>
@@ -15073,7 +15081,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="29">
         <v>32.39</v>
@@ -15094,7 +15102,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="29">
         <v>33.119999999999997</v>
@@ -15115,7 +15123,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="29">
         <v>153.5</v>
@@ -15136,7 +15144,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" s="29">
         <v>135.12</v>
@@ -15157,7 +15165,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="29">
         <v>100.99</v>
@@ -15176,7 +15184,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" s="29">
         <v>72.64</v>
@@ -15197,7 +15205,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="29">
         <v>110.44</v>
@@ -15218,7 +15226,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="29">
         <v>38.479999999999997</v>
@@ -16217,7 +16225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -16234,27 +16242,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="26">
         <v>55</v>
@@ -16274,7 +16282,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="26">
         <v>55</v>
@@ -16294,7 +16302,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="26">
         <v>55</v>
@@ -16314,7 +16322,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="26">
         <v>55</v>
@@ -16334,7 +16342,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="26">
         <v>55</v>
@@ -16354,7 +16362,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="26">
         <v>55</v>
@@ -16374,7 +16382,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="26">
         <v>70</v>
@@ -16394,7 +16402,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="26">
         <v>80</v>
@@ -16414,7 +16422,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="26">
         <v>55</v>
@@ -16434,7 +16442,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="26">
         <v>55</v>
@@ -17443,7 +17451,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17467,46 +17475,46 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="31">
         <v>1.04E-2</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="31">
         <v>8.7300000000000003E-2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="31">
         <v>2012</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="31">
         <v>2018</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -18506,7 +18514,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18523,27 +18531,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
@@ -18566,7 +18574,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -18589,7 +18597,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
@@ -18612,7 +18620,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -18635,7 +18643,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
@@ -18658,7 +18666,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -18681,7 +18689,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
@@ -18704,7 +18712,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="21">
         <v>1</v>
@@ -19725,8 +19733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19754,408 +19762,408 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="32">
         <v>1.9609999999999999E-2</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="32">
         <v>1.4293000000000001E-3</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="32">
         <v>2.34E-5</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="32">
         <v>2.2599999999999999E-3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="32">
         <v>6.9300000000000004E-3</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="32">
         <v>4.1079999999999998E-2</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="26">
         <v>27</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" s="26">
         <v>35</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="26">
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" s="26">
         <v>22</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="26">
         <v>28</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" s="26">
         <v>2</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="76">
-        <v>2.5204</v>
+        <v>189</v>
+      </c>
+      <c r="B14" s="75">
+        <v>1.779E-2</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="76">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="B15" s="75">
+        <v>2.1270000000000001E-2</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="76">
-        <v>4.0800000000000003E-2</v>
+        <v>193</v>
+      </c>
+      <c r="B16" s="75">
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="76">
-        <v>1.2438579220000001E-2</v>
+        <v>195</v>
+      </c>
+      <c r="B17" s="75">
+        <v>6.4159999999999995E-2</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="82">
+        <v>197</v>
+      </c>
+      <c r="B18" s="81">
         <v>67</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="82">
+        <v>199</v>
+      </c>
+      <c r="B19" s="81">
         <v>41</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="82">
+        <v>201</v>
+      </c>
+      <c r="B20" s="81">
         <v>8</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="82">
+        <v>203</v>
+      </c>
+      <c r="B21" s="81">
         <v>27</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="82">
+        <v>205</v>
+      </c>
+      <c r="B22" s="81">
         <v>29</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="82">
+        <v>207</v>
+      </c>
+      <c r="B23" s="81">
         <v>87</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="82">
+        <v>209</v>
+      </c>
+      <c r="B24" s="81">
         <v>34</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="82">
+        <v>211</v>
+      </c>
+      <c r="B25" s="81">
         <v>22</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="82">
+        <v>213</v>
+      </c>
+      <c r="B26" s="81">
         <v>6</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="82">
+        <v>215</v>
+      </c>
+      <c r="B27" s="81">
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="82">
+        <v>217</v>
+      </c>
+      <c r="B28" s="81">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29" s="82">
+        <v>219</v>
+      </c>
+      <c r="B29" s="81">
         <v>21</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="26">
         <v>43</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="26">
         <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="26">
         <v>0.79700000000000004</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B33" s="26">
         <v>0.17249999999999999</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="26">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="26">
         <v>1</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B36" s="26">
         <v>1</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368ED16-398C-44AD-982A-91023A44C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AECD88-951D-4197-8AD4-D8A5DE3298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5735,7 +5735,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5819,7 +5819,7 @@
         <v>226</v>
       </c>
       <c r="B7" s="27">
-        <v>0.3380199179847686</v>
+        <v>0.33801991799999997</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>227</v>
@@ -5830,7 +5830,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="27">
-        <v>0.3380199179847686</v>
+        <v>0.33801991799999997</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>229</v>
@@ -5841,7 +5841,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="12">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>231</v>
@@ -5852,7 +5852,7 @@
         <v>232</v>
       </c>
       <c r="B10" s="12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>233</v>
@@ -5863,7 +5863,7 @@
         <v>234</v>
       </c>
       <c r="B11" s="12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>286</v>
@@ -5885,7 +5885,7 @@
         <v>237</v>
       </c>
       <c r="B13" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>238</v>
@@ -8072,7 +8072,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9163,7 +9163,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9300,7 +9300,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="15">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>283</v>
@@ -10296,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="17">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>39</v>
@@ -10338,7 +10338,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="17">
-        <v>2000000</v>
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>41</v>
@@ -10451,7 +10451,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="64">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>59</v>
@@ -10464,7 +10464,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="12">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>61</v>
@@ -10476,7 +10476,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="12">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>63</v>
@@ -10514,7 +10514,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="12">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>69</v>
@@ -10526,7 +10526,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>71</v>
@@ -10538,7 +10538,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="12">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>73</v>
@@ -10550,7 +10550,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="12">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>75</v>
@@ -10562,7 +10562,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>77</v>
@@ -10586,7 +10586,7 @@
         <v>288</v>
       </c>
       <c r="B23" s="17">
-        <v>200000000</v>
+        <v>200000</v>
       </c>
       <c r="C23" t="s">
         <v>289</v>
@@ -10597,7 +10597,7 @@
         <v>290</v>
       </c>
       <c r="B24" s="17">
-        <v>105000000</v>
+        <v>105000</v>
       </c>
       <c r="C24" t="s">
         <v>291</v>
@@ -11589,7 +11589,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14836,7 +14836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -20170,7 +20170,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21389,7 +21389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AECD88-951D-4197-8AD4-D8A5DE3298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D6DB7-8DE1-4892-8F45-7094C99A2B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -9162,8 +9162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9300,7 +9300,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="15">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>283</v>
@@ -10296,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D6DB7-8DE1-4892-8F45-7094C99A2B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77A51E-A013-495C-9C8F-0BAEBC6BAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="393">
   <si>
     <t>matriz</t>
   </si>
@@ -1238,17 +1238,46 @@
   </si>
   <si>
     <t>Agropecuario heterogeneo'</t>
+  </si>
+  <si>
+    <t>p_transitividad</t>
+  </si>
+  <si>
+    <t>Porcentaje de transitividad</t>
+  </si>
+  <si>
+    <t>BOmax</t>
+  </si>
+  <si>
+    <t>Bosque máximo en la región de estudio</t>
+  </si>
+  <si>
+    <t>Nectarivoro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,8 +1407,22 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,6 +1475,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1862,173 +1911,180 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="24" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8072,7 +8128,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8170,6 +8226,17 @@
       </c>
       <c r="C6" s="12" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9162,7 +9229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9278,7 +9345,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>33</v>
@@ -10297,7 +10364,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10325,7 +10392,7 @@
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="84">
         <v>1000</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -14836,8 +14903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19107,7 +19174,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19174,9 +19241,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="87">
+        <v>17026.634300000002</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>391</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20167,22 +20240,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G999"/>
+  <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="25" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -20193,42 +20269,48 @@
         <v>135</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="83">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>141</v>
       </c>
@@ -20236,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -20250,8 +20332,11 @@
       <c r="G3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>142</v>
       </c>
@@ -20268,18 +20353,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20296,31 +20384,37 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
       </c>
       <c r="F6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>144</v>
       </c>
@@ -20334,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -20342,19 +20436,22 @@
       <c r="G7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -20365,8 +20462,11 @@
       <c r="G8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>146</v>
       </c>
@@ -20386,6 +20486,9 @@
         <v>0</v>
       </c>
       <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
@@ -21370,18 +21473,18 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:G9">
+  <conditionalFormatting sqref="B2:H9">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G9">
+  <conditionalFormatting sqref="B2:H9">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77A51E-A013-495C-9C8F-0BAEBC6BAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446E692-A63E-4677-B53C-AB8DE77F6C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,14 +1412,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1913,7 +1905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2079,7 +2071,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8128,7 +8119,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8229,13 +8220,13 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>388</v>
       </c>
       <c r="B7" s="61">
         <v>0.8</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10392,7 +10383,7 @@
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="83">
         <v>1000</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -19174,7 +19165,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19244,7 +19235,7 @@
       <c r="A6" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="86">
         <v>17026.634300000002</v>
       </c>
       <c r="C6" s="59" t="s">
@@ -20243,7 +20234,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20294,7 +20285,7 @@
       <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="85">
         <v>0</v>
       </c>
       <c r="E2" s="12">
@@ -20384,7 +20375,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="85">
         <v>1</v>
       </c>
     </row>

--- a/condiciones_iniciales/parameters.xlsx
+++ b/condiciones_iniciales/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.amador\Desktop\simulador-resiliencia\herramienta-resiliencia-simulador\condiciones_iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446E692-A63E-4677-B53C-AB8DE77F6C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82DB94-0C15-4D1C-8BFE-E7877985BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transformation_rates" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="social_tissue" sheetId="10" r:id="rId10"/>
     <sheet name="Common_interes" sheetId="11" r:id="rId11"/>
     <sheet name="Health" sheetId="12" r:id="rId12"/>
+    <sheet name="Initial_WR" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="455">
   <si>
     <t>matriz</t>
   </si>
@@ -187,30 +188,12 @@
     <t>Tasa</t>
   </si>
   <si>
-    <t>ConsIndusEner</t>
-  </si>
-  <si>
-    <t>Consumo industrial y energetico</t>
-  </si>
-  <si>
-    <t>ConsOtros</t>
-  </si>
-  <si>
-    <t>Consumo en otras actividades</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>Temperatura promedio multianual</t>
   </si>
   <si>
-    <t>tConsDomes</t>
-  </si>
-  <si>
-    <t>Tasa de consumo pér capita</t>
-  </si>
-  <si>
     <t>pR</t>
   </si>
   <si>
@@ -251,54 +234,6 @@
   </si>
   <si>
     <t>Tasa de flujo de percolación</t>
-  </si>
-  <si>
-    <t>ConsABO</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Bosque</t>
-  </si>
-  <si>
-    <t>ConsAHerb</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Herbazales y arbustales</t>
-  </si>
-  <si>
-    <t>ConsAHeter</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Agropecuario heterogeneo</t>
-  </si>
-  <si>
-    <t>ConsAHomo</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Agrícola homogeneo</t>
-  </si>
-  <si>
-    <t>ConsAPastHomo</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Pasturas homogeneas</t>
-  </si>
-  <si>
-    <t>ConsADveget</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Suelos desprovistos de vegetación (natural)</t>
-  </si>
-  <si>
-    <t>ConsAVSecun</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Vegetación secundaria o seminatural</t>
-  </si>
-  <si>
-    <t>ConsADegra</t>
-  </si>
-  <si>
-    <t>Consumo de agua promedio anual - Áreas degradadas</t>
   </si>
   <si>
     <t>tFS</t>
@@ -871,9 +806,6 @@
     <t>Número entero</t>
   </si>
   <si>
-    <t>Existencia de programas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prácticas de cuidado de agua </t>
   </si>
   <si>
@@ -883,9 +815,6 @@
     <t>Número de prácticas por municipio</t>
   </si>
   <si>
-    <t>Existencia de prácticas</t>
-  </si>
-  <si>
     <t>Prácticas de cuidado de fauna</t>
   </si>
   <si>
@@ -1253,13 +1182,271 @@
   </si>
   <si>
     <t>Nectarivoro</t>
+  </si>
+  <si>
+    <t>DemDomes</t>
+  </si>
+  <si>
+    <t>Demanda hídrica per cápita</t>
+  </si>
+  <si>
+    <t>Demanda anual de agua para generación de energía</t>
+  </si>
+  <si>
+    <t>Demanda anual de agua sector hidrocarburos</t>
+  </si>
+  <si>
+    <t>Demanda anual de agua para el sector de servicios</t>
+  </si>
+  <si>
+    <t>Demanda anual de agua para uso industrial y construcción</t>
+  </si>
+  <si>
+    <t>Demanda Hídrica del sector agrícola</t>
+  </si>
+  <si>
+    <t>Demanda Hídrica sector minero</t>
+  </si>
+  <si>
+    <t>Demanda Hídrica sector pecuario</t>
+  </si>
+  <si>
+    <t>DemEner</t>
+  </si>
+  <si>
+    <t>DemHidrocar</t>
+  </si>
+  <si>
+    <t>DemServi</t>
+  </si>
+  <si>
+    <t>DemIndusConstruc</t>
+  </si>
+  <si>
+    <t>DemAgrico</t>
+  </si>
+  <si>
+    <t>DemMinero</t>
+  </si>
+  <si>
+    <t>DemPecuario</t>
+  </si>
+  <si>
+    <t>tRetorEner</t>
+  </si>
+  <si>
+    <t>tRetorHidrocar</t>
+  </si>
+  <si>
+    <t>tRetorServi</t>
+  </si>
+  <si>
+    <t>tRetorIndusConstruc</t>
+  </si>
+  <si>
+    <t>tRetorAgrico</t>
+  </si>
+  <si>
+    <t>tRetorMinero</t>
+  </si>
+  <si>
+    <t>tRetorPecuario</t>
+  </si>
+  <si>
+    <t>tRetorDomes</t>
+  </si>
+  <si>
+    <t>Tasa de retorno de generación de energía</t>
+  </si>
+  <si>
+    <t>Tasa de retorno de agua sector hidrocarburos</t>
+  </si>
+  <si>
+    <t>Tasa de retorno de agua para el sector de servicios</t>
+  </si>
+  <si>
+    <t>Tasa de retorno de agua para uso industrial y construcción</t>
+  </si>
+  <si>
+    <t>Tasa de retorno del sector agrícola</t>
+  </si>
+  <si>
+    <t>Tasa de retorno del sector minero</t>
+  </si>
+  <si>
+    <t>Tasa de retorno del sector pecuario</t>
+  </si>
+  <si>
+    <t>Tasa de retorno de uso doméstico</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Bosque</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Agropecuario heterogeneo</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Agrícola homogeneo</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Pasturas homogeneas</t>
+  </si>
+  <si>
+    <t>Coeficiente de cultivo - Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>Kc_Bosque</t>
+  </si>
+  <si>
+    <t>Kc_Herba</t>
+  </si>
+  <si>
+    <t>Kc_AgroHeter</t>
+  </si>
+  <si>
+    <t>Kc_AgriHomo</t>
+  </si>
+  <si>
+    <t>Kc_PastHomo</t>
+  </si>
+  <si>
+    <t>Kc_VegSecund</t>
+  </si>
+  <si>
+    <t>Infiltracion</t>
+  </si>
+  <si>
+    <t>Demanda hídrica</t>
+  </si>
+  <si>
+    <t>Flujo de saturacion</t>
+  </si>
+  <si>
+    <t>Percolacion</t>
+  </si>
+  <si>
+    <t>Entrada módulo agua</t>
+  </si>
+  <si>
+    <t>Población del área de estudio</t>
+  </si>
+  <si>
+    <t>Cuidado del agua</t>
+  </si>
+  <si>
+    <t>Área de estudio</t>
+  </si>
+  <si>
+    <t>Área de Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Área de Agrícola homogeneo</t>
+  </si>
+  <si>
+    <t>Área de Agropecuario heterogeneo</t>
+  </si>
+  <si>
+    <t>Área de Pasturas homogeneas</t>
+  </si>
+  <si>
+    <t>Área Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>Almacenamiento de saturación</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Evapotranspiración</t>
+  </si>
+  <si>
+    <t>Ecorrentia</t>
+  </si>
+  <si>
+    <t>Consumo hídrico doméstico</t>
+  </si>
+  <si>
+    <t>Consumo hídrico para generación de energía</t>
+  </si>
+  <si>
+    <t>Consumo hídrico sector hidrocarburos</t>
+  </si>
+  <si>
+    <t>Consumo hídrico para el sector de servicios</t>
+  </si>
+  <si>
+    <t>Consumo hídrico para uso industrial y construcción</t>
+  </si>
+  <si>
+    <t>Consumo hídrico del sector agrícola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo hídrico del sector minero </t>
+  </si>
+  <si>
+    <t>Consumo hídrico del sector pecuario</t>
+  </si>
+  <si>
+    <t>Caudal a la salida</t>
+  </si>
+  <si>
+    <t>Valor límite de riego</t>
+  </si>
+  <si>
+    <t>Punto de marchitez</t>
+  </si>
+  <si>
+    <t>Capacidad de campo</t>
+  </si>
+  <si>
+    <t>Riego</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Bosque</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Herbazales y arbustales</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Agropecuario heterogeneo</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Agricola homogeneo</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Pasturas homogeneas</t>
+  </si>
+  <si>
+    <t>Demanda hídrica Vegetación secundaria o seminatural</t>
+  </si>
+  <si>
+    <t>Área de Bosque</t>
+  </si>
+  <si>
+    <t>Variable auxiliar</t>
+  </si>
+  <si>
+    <t>Retención hídrica inicial estimada</t>
+  </si>
+  <si>
+    <t>dRHdt</t>
+  </si>
+  <si>
+    <t>Variables a ingresar</t>
+  </si>
+  <si>
+    <t>Número de programas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,11 +1564,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -1413,8 +1595,164 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.34998626667073579"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,12 +1809,203 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1900,12 +2429,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2002,32 +2723,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2042,27 +2746,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="24" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,16 +2775,117 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="44" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AC619428-EE3E-433A-9013-CF5B67ECEEC5}"/>
+    <cellStyle name="Normal 3" xfId="42" xr:uid="{8DC4D8F8-D8B5-4DAE-AF3D-5CD18F953AC5}"/>
+    <cellStyle name="Notas 2" xfId="43" xr:uid="{68C36588-A873-4503-A502-F2DBA3C1B81C}"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2317,7 +3122,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2341,8 +3146,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>387</v>
+      <c r="B1" s="74" t="s">
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2356,7 +3161,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="75" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2380,37 +3185,37 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="65">
         <v>0</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="66">
         <v>0</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="66">
         <v>0</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="66">
         <v>0</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="66">
         <v>0</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="66">
         <v>3.0775399999999998E-4</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="66">
         <v>0</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="66">
         <v>0</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="66">
         <v>2.255192E-2</v>
       </c>
-      <c r="K2" s="73">
+      <c r="K2" s="66">
         <v>1.6105932E-2</v>
       </c>
-      <c r="L2" s="73">
+      <c r="L2" s="66">
         <v>0</v>
       </c>
     </row>
@@ -2418,37 +3223,37 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="66">
         <v>0</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="67">
         <v>0</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="66">
         <v>0</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="66">
         <v>0</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="66">
         <v>0</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="66">
         <v>0</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="66">
         <v>0</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="66">
         <v>0</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="66">
         <v>0</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="66">
         <v>0</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="66">
         <v>0</v>
       </c>
     </row>
@@ -2456,37 +3261,37 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="68">
         <v>5.1544822999999997E-2</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="68">
         <v>6.9602793999999996E-2</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="67">
         <v>0</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="66">
         <v>1.2130391250000001</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="66">
         <v>8.4961459000000003E-2</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="66">
         <v>9.4686312999999994E-2</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="66">
         <v>0</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="66">
         <v>5.3331330000000003E-3</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="66">
         <v>9.0040050000000007E-3</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="66">
         <v>2.586531E-3</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="68">
         <v>9.4298609999999995E-3</v>
       </c>
     </row>
@@ -2494,37 +3299,37 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="69">
         <v>7.4738310000000002E-3</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="69">
         <v>1.2235039E-2</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="69">
         <v>1.6633734000000001E-2</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="67">
         <v>0</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="66">
         <v>7.0547299999999997E-4</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="66">
         <v>2.0241944000000001E-2</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="70">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="66">
         <v>1.2566210000000001E-3</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="66">
         <v>5.3059250000000004E-3</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="70">
         <v>9.8800000000000003E-5</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="69">
         <v>3.957304E-3</v>
       </c>
     </row>
@@ -2532,37 +3337,37 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="68">
         <v>1.90084E-4</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="71">
         <v>3.2400000000000001E-5</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="66">
         <v>6.2575680999999994E-2</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="66">
         <v>4.2495950000000001E-3</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="67">
         <v>0</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="70">
         <v>5.4200000000000003E-5</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="66">
         <v>0</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="66">
         <v>0</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="66">
         <v>0</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="66">
         <v>5.6078300000000003E-4</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="72">
         <v>0</v>
       </c>
     </row>
@@ -2570,37 +3375,37 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="69">
         <v>6.8515449999999997E-3</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="69">
         <v>6.5704184999999998E-2</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="66">
         <v>0</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="66">
         <v>0</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="66">
         <v>0</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="67">
         <v>0</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="66">
         <v>0</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="66">
         <v>0</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="66">
         <v>1.8743913000000001E-2</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="66">
         <v>0</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="68">
         <v>2.3522959999999999E-2</v>
       </c>
     </row>
@@ -2608,37 +3413,37 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="69">
         <v>0</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="69">
         <v>0</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="66">
         <v>0</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="66">
         <v>0</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="66">
         <v>0</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="66">
         <v>0</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="67">
         <v>0</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="66">
         <v>0</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="66">
         <v>0</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="66">
         <v>0</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="72">
         <v>0</v>
       </c>
     </row>
@@ -2646,37 +3451,37 @@
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="66">
         <v>0</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="66">
         <v>0</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="66">
         <v>0</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="66">
         <v>0</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="66">
         <v>0</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="66">
         <v>0</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="66">
         <v>0</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="67">
         <v>0</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="66">
         <v>0</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="66">
         <v>0</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="66">
         <v>0</v>
       </c>
     </row>
@@ -2684,37 +3489,37 @@
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="69">
         <v>1.1970201E-2</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="68">
         <v>2.809059E-3</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="66">
         <v>0</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="66">
         <v>0</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="66">
         <v>0</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="66">
         <v>0</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="66">
         <v>0</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="66">
         <v>4.992328E-2</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="67">
         <v>0</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="66">
         <v>1.3637175E-2</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="66">
         <v>0</v>
       </c>
     </row>
@@ -2722,37 +3527,37 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="69">
         <v>4.9945574E-2</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="66">
         <v>0</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="66">
         <v>7.9209415000000005E-2</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="66">
         <v>1.21728872</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="66">
         <v>8.5666932000000001E-2</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="66">
         <v>2.8216100000000001E-4</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="70">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="70">
         <v>8.1300000000000001E-6</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="70">
         <v>3.5200000000000002E-5</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="67">
         <v>0</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="66">
         <v>0</v>
       </c>
     </row>
@@ -2760,37 +3565,37 @@
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="66">
         <v>6.4658800000000002E-4</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="69">
         <v>2.1611226000000001E-2</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="69">
         <v>0</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="73">
         <v>0</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="68">
         <v>0</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="73">
         <v>0.12229936499999999</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="72">
         <v>0</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="71">
         <v>5.7200000000000001E-5</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="68">
         <v>0</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="72">
         <v>0</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="67">
         <v>0</v>
       </c>
     </row>
@@ -5808,134 +6613,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="63">
+        <v>195</v>
+      </c>
+      <c r="B2" s="56">
         <v>31</v>
       </c>
-      <c r="C2" s="71" t="s">
-        <v>287</v>
+      <c r="C2" s="64" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B3" s="12">
         <v>0.5</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B4" s="12">
         <v>0.5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B5" s="12">
         <v>0.25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B6" s="27">
         <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B7" s="27">
         <v>0.33801991799999997</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B8" s="27">
         <v>0.33801991799999997</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B9" s="12">
         <v>0.2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B10" s="12">
         <v>0.2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B11" s="12">
         <v>0.6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B12" s="12">
         <v>0.1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B13" s="12">
         <v>0.5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6930,8 +7735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6946,22 +7751,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>14</v>
@@ -6969,22 +7774,22 @@
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="G2" s="34">
         <v>0</v>
@@ -6992,22 +7797,22 @@
     </row>
     <row r="3" spans="1:7" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G3" s="34">
         <v>0.63780000000000003</v>
@@ -7015,116 +7820,116 @@
     </row>
     <row r="4" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="66">
+        <v>237</v>
+      </c>
+      <c r="G4" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="67">
+        <v>242</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="60">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="68">
+      <c r="A6" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="68">
+      <c r="A7" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="69">
+      <c r="A8" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="62">
         <v>3</v>
       </c>
     </row>
@@ -8119,7 +8924,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8143,13 +8948,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="61">
+        <v>248</v>
+      </c>
+      <c r="B2" s="54">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -8177,57 +8982,57 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="62">
+        <v>250</v>
+      </c>
+      <c r="B3" s="55">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="60">
+        <v>252</v>
+      </c>
+      <c r="B4" s="53">
         <v>10000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="60">
+        <v>254</v>
+      </c>
+      <c r="B5" s="53">
         <v>6929</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B6" s="15">
         <v>0.51800000000000002</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7" s="61">
+      <c r="A7" s="76" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="54">
         <v>0.8</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>389</v>
+      <c r="C7" s="76" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9216,18 +10021,649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67735F87-C6BE-4BE8-88DA-F4D59523F8C4}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="93">
+        <f>water_parameters!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="85">
+        <f>initial_conditions!$B$4+initial_conditions!$B$5+initial_conditions!$B$6</f>
+        <v>1707</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="H2" s="96">
+        <v>141524.43939692399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="93">
+        <f>water_parameters!B3</f>
+        <v>534421.93660000002</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3" s="96">
+        <v>23808.325339999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="93">
+        <f>water_parameters!B4</f>
+        <v>345.28141900000003</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" s="85">
+        <f>10000*$H$2*$B$30*$B$31</f>
+        <v>382512254.80200619</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="96">
+        <v>95629.449176896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="93">
+        <f>water_parameters!B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="85">
+        <f>300+0.25*$B$24+0.0025*($B$24)^2</f>
+        <v>308.31567224999998</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="96">
+        <v>3047.0848967585998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="93">
+        <f>water_parameters!B6</f>
+        <v>2006146.3319999999</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="85">
+        <f>$B$25/SQRT(0.9 + ($B$25 / $E$5) ^ 2)</f>
+        <v>305.21050122735153</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="96">
+        <v>5055.2406540600005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="93">
+        <f>water_parameters!B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="83">
+        <f>$B$34+$I$12</f>
+        <v>1752424588.8449519</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="96">
+        <v>8677.4664220400009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="93">
+        <f>water_parameters!B8</f>
+        <v>507069.6593</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="85">
+        <f>$E$2*$B$9*(1-$B$17)*(1-($E$3^3)/3)</f>
+        <v>13741.349999999999</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="96">
+        <v>54.385005214047801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="93">
+        <f>water_parameters!B9</f>
+        <v>42</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="85">
+        <f>$B2*(1-$B10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="93">
+        <f>water_parameters!B10</f>
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="85">
+        <f>$B3*(1-$B11)</f>
+        <v>106884.38731999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="93">
+        <f>water_parameters!B11</f>
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="85">
+        <f>$B4*(1-$B12)</f>
+        <v>69.056283799999989</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="93">
+        <f>water_parameters!B12</f>
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="85">
+        <f>$B5*(1-$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <f>IF(10*$H$2*($B$25-$E$6)+$E$20-$E$7&lt;=0,0,10*$H$2*($B$25-$E$6)+$E$20-$E$7)</f>
+        <v>710227319.29778314</v>
+      </c>
+      <c r="H12" s="92">
+        <f>SUM(E21:E26)</f>
+        <v>443992309.17652231</v>
+      </c>
+      <c r="I12" s="92">
+        <f>$B$33*($H$15-$E$4)</f>
+        <v>96405682.844951957</v>
+      </c>
+      <c r="J12" s="92">
+        <f>$B$32*10*$H$2</f>
+        <v>169829327.27630877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="93">
+        <f>water_parameters!B13</f>
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="85">
+        <f>$B6*(1-$B14)</f>
+        <v>401229.26639999991</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="93">
+        <f>water_parameters!B14</f>
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="85">
+        <f>$B7*(1-$B15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="93">
+        <f>water_parameters!B15</f>
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="85">
+        <f>$B8*(1-$B16)</f>
+        <v>101413.93185999998</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>451</v>
+      </c>
+      <c r="H15" s="101">
+        <f>(10*$H$2*($B$25-$E$6)+$B$26*$E$16-$B$34+2*$B$33*$E$4-$H$12-$J$12)/(2*$B$33)</f>
+        <v>864540669.02676594</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="85">
+        <f>$G$12-$H$12-$I$12-$J$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="93">
+        <f>water_parameters!B16</f>
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="83">
+        <f>$B$35-SUM(E8:E15)</f>
+        <v>1285387849.0081363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="93">
+        <f>water_parameters!B17</f>
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="85">
+        <f>$B$29*$E$4</f>
+        <v>49726593.124260806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="93">
+        <f>water_parameters!B18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="85">
+        <f>$B$28*$E$4</f>
+        <v>118578798.98862192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="93">
+        <f>water_parameters!B19</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>439</v>
+      </c>
+      <c r="E19" s="85">
+        <f>$B$27*($E$18-$E$17)+$E$17</f>
+        <v>63497034.297133029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="93">
+        <f>water_parameters!B20</f>
+        <v>1.05</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" s="85">
+        <f>$B$26*$E$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="93">
+        <f>water_parameters!B21</f>
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="85">
+        <f>$E$6*$B18*10*$H3</f>
+        <v>72665509.104052544</v>
+      </c>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="93">
+        <f>water_parameters!B22</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="85">
+        <f>$E$6*$B19*10*$H4</f>
+        <v>321058233.26913565</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="93">
+        <f>water_parameters!B23</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="85">
+        <f>$E$6*$B20*10*$H5</f>
+        <v>9765024.2405308429</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="93">
+        <f>water_parameters!B24</f>
+        <v>26.33</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="E24" s="85">
+        <f>$E$6*$B21*10*$H6</f>
+        <v>13886212.804654837</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="93">
+        <f>water_parameters!B25</f>
+        <v>2045.3</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="E25" s="85">
+        <f>$E$6*$B22*10*$H7</f>
+        <v>26484538.760543413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="93">
+        <f>water_parameters!B26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="E26" s="85">
+        <f>$E$6*$B23*10*$H8</f>
+        <v>132790.99760505324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="93">
+        <f>water_parameters!B27</f>
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="93">
+        <f>water_parameters!B28</f>
+        <v>0.31</v>
+      </c>
+      <c r="I28" s="86"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="93">
+        <f>water_parameters!B29</f>
+        <v>0.13</v>
+      </c>
+      <c r="I29" s="86"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="93">
+        <f>water_parameters!B30</f>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="93">
+        <f>water_parameters!B31</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="93">
+        <f>water_parameters!B32</f>
+        <v>120</v>
+      </c>
+      <c r="I32" s="84"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="93">
+        <f>water_parameters!B33</f>
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="94">
+        <f>water_parameters!B34</f>
+        <v>1656018906</v>
+      </c>
+      <c r="I34" s="86"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="94">
+        <f>water_parameters!B35</f>
+        <v>1286011187</v>
+      </c>
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="87"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
@@ -9247,8 +10683,8 @@
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12">
-        <v>467000000</v>
+      <c r="B2" s="77">
+        <v>864540669.02676594</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>17</v>
@@ -9361,7 +10797,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10352,15 +11788,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J999"/>
+  <dimension ref="A1:J1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="146.5703125" customWidth="1"/>
     <col min="4" max="6" width="10.7109375" customWidth="1"/>
@@ -10368,7 +11804,7 @@
     <col min="8" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
@@ -10379,312 +11815,421 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="80">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="54">
+        <v>534421.93660000002</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="54">
+        <v>345.28141900000003</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="54">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="54">
+        <v>2006146.3319999999</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="54">
+        <v>507069.6593</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="54">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="79">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="79">
+        <v>1.05</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="79">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="83">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B24" s="54">
+        <v>26.33</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="55">
+        <v>2045.3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="17">
-        <v>200</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="G26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="70">
-        <v>26.33</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B27" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="G27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B28" s="54">
+        <v>0.31</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B29" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="G29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B30" s="54">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="57">
+        <v>120</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="57">
         <v>0.2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="61">
-        <v>0.31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="61">
-        <v>0.13</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="61">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="C33" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="61">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="62">
-        <v>60.817417589999998</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="62">
-        <v>60.817417589999998</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="12">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="60">
-        <v>170.441</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="17">
-        <v>200000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="17">
-        <v>105000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="54">
+        <v>1656018906</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="54">
+        <v>1286011187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11636,6 +13181,15 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11664,19 +13218,19 @@
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -11701,7 +13255,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B2" s="12">
         <v>0.119947849</v>
@@ -11719,7 +13273,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B3" s="12">
         <v>0.96219035200000003</v>
@@ -11735,7 +13289,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B4" s="12">
         <v>0.76010430200000001</v>
@@ -11753,7 +13307,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B5" s="12">
         <v>0.80704041699999995</v>
@@ -11773,7 +13327,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B6" s="12">
         <v>0.90743155099999995</v>
@@ -11793,7 +13347,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B7" s="12">
         <v>0.87874836999999995</v>
@@ -11813,7 +13367,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B8" s="12">
         <v>4.5632333999999997E-2</v>
@@ -11833,7 +13387,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B9" s="12">
         <v>0.91003911299999996</v>
@@ -11853,7 +13407,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B10" s="12">
         <v>0.81877444600000004</v>
@@ -11871,7 +13425,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B11" s="12">
         <v>0.98565840900000001</v>
@@ -11891,7 +13445,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>0.94132985700000005</v>
@@ -11908,7 +13462,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>0.91134289400000001</v>
@@ -14911,27 +16465,27 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B2" s="20">
         <v>17.453703699999998</v>
@@ -14952,7 +16506,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B3" s="20">
         <v>28.851851849999999</v>
@@ -14973,7 +16527,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B4" s="20">
         <v>27.444444440000002</v>
@@ -14994,7 +16548,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B5" s="20">
         <v>23.657407410000001</v>
@@ -15015,7 +16569,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B6" s="20">
         <v>26.194444440000002</v>
@@ -15036,7 +16590,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B7" s="20">
         <v>34.416666669999998</v>
@@ -15057,7 +16611,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B8" s="20">
         <v>15</v>
@@ -15078,7 +16632,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B9" s="20">
         <v>26.62037037</v>
@@ -15099,7 +16653,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B10" s="20">
         <v>84.30020202</v>
@@ -15120,7 +16674,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B11" s="20">
         <v>87.774747469999994</v>
@@ -15141,7 +16695,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B12" s="20">
         <v>81.503737369999996</v>
@@ -15162,7 +16716,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B13" s="20">
         <v>89.507070709999994</v>
@@ -15183,7 +16737,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B14" s="20">
         <v>79.509090909999998</v>
@@ -15204,7 +16758,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B15" s="20">
         <v>105.3159596</v>
@@ -15225,7 +16779,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B16" s="20">
         <v>86.245353539999996</v>
@@ -15246,7 +16800,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B17" s="20">
         <v>58.637070710000003</v>
@@ -15267,7 +16821,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B18" s="20">
         <v>99.752525250000005</v>
@@ -15288,7 +16842,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B19" s="20">
         <v>90.655353539999993</v>
@@ -15309,7 +16863,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B20" s="20">
         <v>73.762727269999999</v>
@@ -15330,7 +16884,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B21" s="20">
         <v>59.730909089999997</v>
@@ -15351,7 +16905,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B22" s="20">
         <v>78.44</v>
@@ -15372,7 +16926,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B23" s="20">
         <v>16.046296300000002</v>
@@ -15393,7 +16947,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B24" s="20">
         <v>15.222222220000001</v>
@@ -15414,7 +16968,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B25" s="20">
         <v>14.69444444</v>
@@ -15435,7 +16989,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B26" s="20">
         <v>23.38888889</v>
@@ -15456,7 +17010,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B27" s="20">
         <v>27.972222219999999</v>
@@ -15477,7 +17031,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B28" s="20">
         <v>30.203703699999998</v>
@@ -15498,7 +17052,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="B29" s="20">
         <v>16.555555559999998</v>
@@ -15519,7 +17073,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B30" s="20">
         <v>19.953703699999998</v>
@@ -15540,7 +17094,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B31" s="21">
         <v>21.898148150000001</v>
@@ -15561,7 +17115,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B32">
         <v>15.12962963</v>
@@ -15581,7 +17135,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B33">
         <v>18.74074074</v>
@@ -15601,7 +17155,7 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B34">
         <v>17.5</v>
@@ -15621,7 +17175,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B35">
         <v>21.12037037</v>
@@ -15641,7 +17195,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B36">
         <v>18.787037040000001</v>
@@ -15661,7 +17215,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B37">
         <v>20.083333329999999</v>
@@ -15681,7 +17235,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B38">
         <v>19.25</v>
@@ -15701,7 +17255,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B39">
         <v>20.277777780000001</v>
@@ -15721,7 +17275,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B40">
         <v>16.851851849999999</v>
@@ -15741,7 +17295,7 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B41">
         <v>14.657407409999999</v>
@@ -15761,7 +17315,7 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B42">
         <v>15.16666667</v>
@@ -15781,7 +17335,7 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B43">
         <v>21.37962963</v>
@@ -15801,7 +17355,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B44">
         <v>16.916666670000001</v>
@@ -15821,7 +17375,7 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B45">
         <v>20.435185189999999</v>
@@ -15841,7 +17395,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B46">
         <v>20.63888889</v>
@@ -15861,7 +17415,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B47">
         <v>17</v>
@@ -15881,7 +17435,7 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B48">
         <v>20.972222219999999</v>
@@ -15901,7 +17455,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B49">
         <v>18.462962959999999</v>
@@ -15921,7 +17475,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B50">
         <v>16.851851849999999</v>
@@ -15941,7 +17495,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B51">
         <v>11.9537037</v>
@@ -15961,7 +17515,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B52">
         <v>13.28703704</v>
@@ -15981,7 +17535,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B53">
         <v>18.11111111</v>
@@ -16001,7 +17555,7 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B54">
         <v>12.75925926</v>
@@ -16021,7 +17575,7 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B55">
         <v>11.268518520000001</v>
@@ -16041,7 +17595,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B56">
         <v>12.12962963</v>
@@ -16061,7 +17615,7 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B57">
         <v>13.12037037</v>
@@ -16081,7 +17635,7 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="B58">
         <v>16.537037040000001</v>
@@ -16101,7 +17655,7 @@
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B59">
         <v>16.925925929999998</v>
@@ -16121,7 +17675,7 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B60">
         <v>19.324074070000002</v>
@@ -16141,7 +17695,7 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B61">
         <v>18.00925926</v>
@@ -16161,7 +17715,7 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B62">
         <v>18.231481479999999</v>
@@ -16181,7 +17735,7 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B63">
         <v>14.148148150000001</v>
@@ -16201,7 +17755,7 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B64">
         <v>13.94444444</v>
@@ -16221,7 +17775,7 @@
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B65">
         <v>18.305555559999998</v>
@@ -16241,7 +17795,7 @@
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B66">
         <v>16.546296300000002</v>
@@ -16261,7 +17815,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B67">
         <v>18.351851849999999</v>
@@ -16281,7 +17835,7 @@
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B68">
         <v>17.981481479999999</v>
@@ -16301,7 +17855,7 @@
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B69">
         <v>16.277777780000001</v>
@@ -16321,7 +17875,7 @@
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B70">
         <v>19.537037040000001</v>
@@ -16341,7 +17895,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B71">
         <v>18.666666670000001</v>
@@ -16361,7 +17915,7 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="B72">
         <v>20.25925926</v>
@@ -16381,7 +17935,7 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B73">
         <v>11.777777779999999</v>
@@ -16401,7 +17955,7 @@
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B74">
         <v>17.342592589999999</v>
@@ -16421,7 +17975,7 @@
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="B75">
         <v>18.898148150000001</v>
@@ -16441,7 +17995,7 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B76">
         <v>14.592592590000001</v>
@@ -16461,7 +18015,7 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B77">
         <v>14.592592590000001</v>
@@ -16481,7 +18035,7 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B78">
         <v>19.12037037</v>
@@ -16501,7 +18055,7 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B79">
         <v>17.38888889</v>
@@ -16521,7 +18075,7 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="B80">
         <v>11.68518519</v>
@@ -16541,7 +18095,7 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B81">
         <v>12.25</v>
@@ -16561,7 +18115,7 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B82">
         <v>13.851851849999999</v>
@@ -16581,7 +18135,7 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B83">
         <v>14.5</v>
@@ -16601,7 +18155,7 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B84">
         <v>14.148148150000001</v>
@@ -16621,7 +18175,7 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B85">
         <v>20</v>
@@ -16641,7 +18195,7 @@
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B86">
         <v>18.703703699999998</v>
@@ -16661,7 +18215,7 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B87">
         <v>10.37037037</v>
@@ -16681,7 +18235,7 @@
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B88">
         <v>10.37037037</v>
@@ -16701,7 +18255,7 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B89">
         <v>11.2037037</v>
@@ -16721,7 +18275,7 @@
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B90">
         <v>14.722222220000001</v>
@@ -16741,7 +18295,7 @@
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B91">
         <v>17.037037040000001</v>
@@ -16761,7 +18315,7 @@
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B92">
         <v>14.907407409999999</v>
@@ -16781,7 +18335,7 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B93">
         <v>15.18518519</v>
@@ -16801,7 +18355,7 @@
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B94">
         <v>15.648148150000001</v>
@@ -16821,7 +18375,7 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B95">
         <v>10.18518519</v>
@@ -16841,7 +18395,7 @@
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B96">
         <v>13.148148150000001</v>
@@ -16861,7 +18415,7 @@
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B97">
         <v>11.94444444</v>
@@ -16881,7 +18435,7 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B98">
         <v>16.296296300000002</v>
@@ -16901,7 +18455,7 @@
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B99">
         <v>15.83333333</v>
@@ -16921,7 +18475,7 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B100">
         <v>19.074074070000002</v>
@@ -16941,7 +18495,7 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B101">
         <v>19.25925926</v>
@@ -16961,7 +18515,7 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B102">
         <v>16.203703699999998</v>
@@ -16981,7 +18535,7 @@
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B103">
         <v>13.518518520000001</v>
@@ -17001,7 +18555,7 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B104">
         <v>12.68518519</v>
@@ -17021,7 +18575,7 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B105">
         <v>14.351851849999999</v>
@@ -17956,27 +19510,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B2" s="17">
         <v>55</v>
@@ -17996,7 +19550,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B3" s="17">
         <v>55</v>
@@ -18016,7 +19570,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B4" s="17">
         <v>55</v>
@@ -18036,7 +19590,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B5" s="17">
         <v>55</v>
@@ -18056,7 +19610,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B6" s="17">
         <v>55</v>
@@ -18076,7 +19630,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B7" s="17">
         <v>55</v>
@@ -18096,7 +19650,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B8" s="17">
         <v>70</v>
@@ -18116,7 +19670,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B9" s="17">
         <v>80</v>
@@ -18136,7 +19690,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B10" s="17">
         <v>55</v>
@@ -18156,7 +19710,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B11" s="17">
         <v>55</v>
@@ -19189,57 +20743,57 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B2" s="22">
         <v>1.04E-2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B3" s="22">
         <v>8.7300000000000003E-2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B4" s="22">
         <v>2012</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B5" s="22">
         <v>2018</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="86">
+      <c r="A6" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="78">
         <v>17026.634300000002</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>391</v>
+      <c r="C6" s="52" t="s">
+        <v>367</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -20233,7 +21787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -20254,30 +21808,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -20285,7 +21839,7 @@
       <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="77">
         <v>0</v>
       </c>
       <c r="E2" s="12">
@@ -20303,7 +21857,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -20329,7 +21883,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -20355,7 +21909,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -20375,13 +21929,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -20407,7 +21961,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -20433,7 +21987,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -20459,7 +22013,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -21512,408 +23066,408 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B2" s="23">
         <v>1.9609999999999999E-2</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B3" s="23">
         <v>1.4293000000000001E-3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B4" s="23">
         <v>2.34E-5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B5" s="23">
         <v>2.2599999999999999E-3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B6" s="23">
         <v>6.9300000000000004E-3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B7" s="23">
         <v>4.1079999999999998E-2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B8" s="17">
         <v>27</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B9" s="17">
         <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B10" s="17">
         <v>3</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17">
         <v>22</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B12" s="17">
         <v>28</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="64">
+        <v>149</v>
+      </c>
+      <c r="B14" s="57">
         <v>1.779E-2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="64">
+        <v>151</v>
+      </c>
+      <c r="B15" s="57">
         <v>2.1270000000000001E-2</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="64">
+        <v>153</v>
+      </c>
+      <c r="B16" s="57">
         <v>1.3799999999999999E-3</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="64">
+        <v>155</v>
+      </c>
+      <c r="B17" s="57">
         <v>6.4159999999999995E-2</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="70">
+        <v>157</v>
+      </c>
+      <c r="B18" s="63">
         <v>67</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="70">
+        <v>159</v>
+      </c>
+      <c r="B19" s="63">
         <v>41</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="70">
+        <v>161</v>
+      </c>
+      <c r="B20" s="63">
         <v>8</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="70">
+        <v>163</v>
+      </c>
+      <c r="B21" s="63">
         <v>27</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="70">
+        <v>165</v>
+      </c>
+      <c r="B22" s="63">
         <v>29</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="70">
+        <v>167</v>
+      </c>
+      <c r="B23" s="63">
         <v>87</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="70">
+        <v>169</v>
+      </c>
+      <c r="B24" s="63">
         <v>34</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="70">
+        <v>171</v>
+      </c>
+      <c r="B25" s="63">
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="70">
+        <v>173</v>
+      </c>
+      <c r="B26" s="63">
         <v>6</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="70">
+        <v>175</v>
+      </c>
+      <c r="B27" s="63">
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="70">
+        <v>177</v>
+      </c>
+      <c r="B28" s="63">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="70">
+        <v>179</v>
+      </c>
+      <c r="B29" s="63">
         <v>21</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B30" s="17">
         <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B31" s="17">
         <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B32" s="17">
         <v>0.79700000000000004</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B33" s="17">
         <v>0.17249999999999999</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B34" s="17">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B35" s="17">
         <v>1</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B36" s="17">
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
